--- a/processed_reviews.xlsx
+++ b/processed_reviews.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA21"/>
+  <dimension ref="A1:AB21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,224 +436,227 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>model_id</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>model</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>brand</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>segmentation</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>country</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>reviewer</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>agency</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>link</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pros_cleaned</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>cons_cleaned</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>cleaned_text</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>sentiment_score</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>sentiment_label</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>top_keywords</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>pros_display_quality</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>cons_display_quality</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>pros_performance</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>cons_performance</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>pros_connectivity</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>cons_connectivity</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>pros_design</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>cons_design</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>pros_features</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>cons_features</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>pros_price</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>cons_price</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>pros_energy_efficiency</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>cons_energy_efficiency</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
         <is>
           <t xml:space="preserve">AG276QZD2 </t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>AOC</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>gaming</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>Germany</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>madeup1</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>still made up</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>https://openai.com/index/chatgpt/</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>['brilliant qdoled panel', 'extremely fast response times', 'impressive refresh rate', 'very low latencies', 'fluid and crisp gaming experience', 'fantastic image quality in sdr and hdr', 'sleek design with good ergonomics', 'generally good workmanship', 'no active cooling unit', 'great priceperformance ratio', 'brilliant qdoled panel', 'extremely fast response times', 'impressive refresh rate', 'very low latencies', 'fluid and crisp gaming experience', 'fantastic image quality in sdr and hdr', 'sleek design with good ergonomics', 'generally good workmanship', 'no active cooling unit', 'great priceperformance ratio']</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>['badly calibrated colours red cast', 'no kvm switch', 'no usbc with dp alt', 'badly calibrated colours red cast', 'no kvm switch', 'no usbc with dp alt']</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>this is now the fifth monitor ive tested from tpv and they all have the same fault the rgb balance drifts apart especially in the srgbdcip3 profile this gives a “nice” red cast i have already had a lengthy telephone conversation with tpv about this including a live demonstration with my measuring equipment in my opinion the error must be systematic because i measure exactly the same deviation here with both the mk550t and the ca410 im curious to see what tpv will do about this the ag276qzd2 falls just short of aocs advertised avg deltae 2000 2 both in srgb and p3 mode aoc states on the measurement report that the deltae cie 94 was measured so not the current standard deltae 2000 or deltae itp a good deltae 94 is much easier to achieve to exaggerate more of an estimate the whole thing is misleading because on the homepage it only says deltae 2 unfortunately without specifying which standard i cant measure this with calman because the software doesnt support the old deltae 94 i have already communicated the issue to tpv aoc</t>
         </is>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>0.1098086124401914</v>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>positive</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>['deltae', 'tpv', '94', 'deltae 94', 'measure']</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>['brilliant qdoled panel', 'fantastic image quality in sdr and hdr', 'brilliant qdoled panel', 'fantastic image quality in sdr and hdr']</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="P2" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
           <t>['extremely fast response times', 'impressive refresh rate', 'extremely fast response times', 'impressive refresh rate']</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="R2" t="inlineStr">
         <is>
           <t>[]</t>
@@ -661,164 +664,167 @@
       </c>
       <c r="S2" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
           <t>['no kvm switch', 'no usbc with dp alt', 'no kvm switch', 'no usbc with dp alt']</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>['sleek design with good ergonomics', 'generally good workmanship', 'no active cooling unit', 'sleek design with good ergonomics', 'generally good workmanship', 'no active cooling unit']</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="V2" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
           <t>['fantastic image quality in sdr and hdr', 'fantastic image quality in sdr and hdr']</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="X2" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
           <t>['great priceperformance ratio', 'great priceperformance ratio']</t>
         </is>
       </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="Z2" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
         <is>
           <t xml:space="preserve">24G42E </t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>AOC</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>gaming</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>Germany</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>madeup2</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>still made up</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>https://openai.com/index/chatgpt/</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>['cables are included in the box', 'fhd fits to the 238” size', 'gmenu application', 'excellent motion blurfree gaming experience', 'gsync compatible', 'hight 180 hz refresh rate', 'great ips panel', 'very easy to assemble', 'hdmi and dp inputs', 'headphone output', 'all the goodies of the world packed in a clear menu', 'dedicated buttons no need to control the menu with a joystick', 'vesa compatibility', 'cables are included in the box', 'fhd fits to the 238” size', 'gmenu application', 'excellent motion blurfree gaming experience', 'gsync compatible']</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>['usb hub could be nice but its rare to find it in this price category', 'pivot mode and height adjustment are not available with the factory stand but thats just nitpicking']</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>the aoc 24g42e gamer monitor has been available for under 50 thousand forints in recent weeks but you can almost always find a bargain for under 60 thousand a few years ago we could only get a 60 hz slow tn panel monitor off the shelves in exchange the monitor could be the perfect entry into the high refresh rate display category without having to spend a serious amount of money theres also no need to worry if you dont get 180 fps in a particular game as adaptivesync solutions handle this perfectly the ips panel has done its job well with 300 cdm² brightness even in bright rooms while the inputs are not picky either its hard to find a better deal these days if youre eyeing a 1080p monitor with high refresh rates</t>
         </is>
       </c>
-      <c r="K3" t="n">
+      <c r="L3" t="n">
         <v>0.1707777777777778</v>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>positive</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>['high refresh', 'thousand', '60', 'refresh', 'high']</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>['great ips panel']</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="P3" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
           <t>['hight 180 hz refresh rate']</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="R3" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
           <t>['hdmi and dp inputs', 'headphone output']</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>['usb hub could be nice but its rare to find it in this price category']</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>['fhd fits to the 238” size', 'fhd fits to the 238” size']</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>['pivot mode and height adjustment are not available with the factory stand but thats just nitpicking']</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="W3" t="inlineStr">
         <is>
           <t>['gmenu application', 'all the goodies of the world packed in a clear menu', 'dedicated buttons no need to control the menu with a joystick', 'gmenu application']</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="X3" t="inlineStr">
         <is>
           <t>[]</t>
@@ -826,259 +832,265 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
           <t>['usb hub could be nice but its rare to find it in this price category']</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="AA3" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
         <is>
           <t xml:space="preserve">27B2G5500 </t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>Philips</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>B2B</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>Germany</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>madeup3</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>still made up</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>https://openai.com/index/chatgpt/</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>['100 hz refresh rate', '2560 x 1440 quad hd 27” size 109 ppi', 'ips panel with 167m colours', 'lightsensor and powersensor for energy saving', 'headphone holder', 'rich connectivity including hdmi 20 x 2 displayport 14 x 1', 'builtin power supply', 'compact size and beautiful design of the monitor stand', 'osd interface is very userfriendly and simple', 'good price performance']</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>['quality of builtin 3 w x 2 speakers is not ideal', 'promised srgb 108 and ntsc 94 didn’t show in test as it reached srgb 100 and ntsc 76 measured brightness didn’t reach 300 cdm² but 265 cdm²', 'the same for contrast as it reached 13201 instead of 15001', 'for few of the colours accuracy in the measurement was not good']</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>the philips 27b2g5500 is a solid choice for an office monitor especially thanks to its energysaving features and 1440p resolution which has become a standard in modern work environments it’s wellsuited for office tasks offering a smooth experience with its 100 hz refresh rate while its colour accuracy and viewing angles arent perfect these issues are not significant in a welllit office setting the monitor also offers good value for money however for home use where watching movies or playing games might be a priority the muted colours and weak builtin speakers could slightly reduce the overall experience overall it’s a great option for office work but other monitors might be worth considering for home use</t>
         </is>
       </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
         <v>0.1903645833333333</v>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>positive</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>['office', 'home use', 'overall', 'experience', 'home']</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>['ips panel with 167m colours']</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>['promised srgb 108 and ntsc 94 didn’t show in test as it reached srgb 100 and ntsc 76 measured brightness didn’t reach 300 cdm² but 265 cdm²', 'the same for contrast as it reached 13201 instead of 15001']</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>['100 hz refresh rate']</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="R4" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
           <t>['headphone holder', 'rich connectivity including hdmi 20 x 2 displayport 14 x 1']</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="T4" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
           <t>['2560 x 1440 quad hd 27” size 109 ppi', 'compact size and beautiful design of the monitor stand']</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="V4" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
           <t>['osd interface is very userfriendly and simple']</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
+      <c r="X4" t="inlineStr">
         <is>
           <t>['quality of builtin 3 w x 2 speakers is not ideal']</t>
         </is>
       </c>
-      <c r="X4" t="inlineStr">
+      <c r="Y4" t="inlineStr">
         <is>
           <t>['good price performance']</t>
         </is>
       </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="Z4" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t xml:space="preserve">34B2U5600C </t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Philips</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>B2B</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Germany</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>madeup1</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>still made up</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>https://openai.com/index/chatgpt/</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>['120 hz refresh rate', '3440 x 1440 wqhd resolution', '34’’ size curved display', 'usbc rj45 connectivity', 'hdmi 20 x 2 displayport 14 x 1', 'smart kvm switch', 'great for home office and gaming as well', 'stable and welldesigned monitor stand also provides good cable management', 'headphone holder', 'built in power supply', 'powersensor and lightsensor for energy saving', 'excellent colour precision in the tests']</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>['brightness could be higher in the test it reached 243 cdm² instead of 300 cdm²', 'contrast reached 24001 instead of 40001 but the reason could be the curve that can affect the measuring equipment precision']</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>’the philips 34b2u5600c leaves a strong and positive impression especially for a curved monitor aimed at office work it proves that excellent performance doesn’t have to come with a big price tag offering a great mix of practicality and visual quality it delivers professional colour precision which is rare for a 120 hz curved display at this price point while philips doesn’t explicitly market it as a gaming monitor the specs suggest it’s more than capable of handling casual gaming and multimedia use making it a truly versatile option it also shines in terms of userfriendliness helping reduce cable clutter and streamlining the workspace — perfect for a modern home office setup all in all the 34b2u5600c is a reliable wellbalanced monitor that comfortably fits both productivity and entertainment needs</t>
         </is>
       </c>
-      <c r="K5" t="n">
+      <c r="L5" t="n">
         <v>0.3100378787878789</v>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>positive</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="N5" t="inlineStr">
         <is>
           <t>['doesn', 'curved', '34b2u5600c', 'office', 'philips']</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>['3440 x 1440 wqhd resolution']</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="P5" t="inlineStr">
         <is>
           <t>['brightness could be higher in the test it reached 243 cdm² instead of 300 cdm²', 'contrast reached 24001 instead of 40001 but the reason could be the curve that can affect the measuring equipment precision']</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>['120 hz refresh rate']</t>
         </is>
       </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="R5" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
           <t>['usbc rj45 connectivity', 'hdmi 20 x 2 displayport 14 x 1', 'smart kvm switch', 'headphone holder']</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="T5" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
           <t>['34’’ size curved display', 'stable and welldesigned monitor stand also provides good cable management']</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="V5" t="inlineStr">
         <is>
           <t>[]</t>
@@ -1105,130 +1117,133 @@
         </is>
       </c>
       <c r="AA5" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t xml:space="preserve">27B1U5601H </t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Philips</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>B2B</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Germany</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>madeup2</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>still made up</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>https://openai.com/index/chatgpt/</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>['solid design that fits into any work space', 'high quality sturdy and easily adjustable stand', 'great ips display with a refresh rate of 75 hz', 'multiple convenient ways to connect a computer', 'integrated usb hub for peripherals', 'usbc with power delivery', 'rj45 port', 'webcam noise canceling mic and speakers for video calls']</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>['markings on control buttons may be hard to see', 'cable management could be better', 'no way to quickly adjust brightness on the monitor without going through menus']</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>a good tool is unobtrusive and allows you to focus on your work the philips 27b1u5601h monitor can be such a tool in your home office</t>
         </is>
       </c>
-      <c r="K6" t="n">
+      <c r="L6" t="n">
         <v>0.35</v>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>positive</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>['tool', 'allows focus', 'allows', 'work philips', '27b1u5601h']</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="O6" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
           <t>['no way to quickly adjust brightness on the monitor without going through menus']</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>['great ips display with a refresh rate of 75 hz']</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="R6" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
           <t>['integrated usb hub for peripherals', 'usbc with power delivery', 'rj45 port']</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="T6" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
           <t>['solid design that fits into any work space', 'high quality sturdy and easily adjustable stand']</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="V6" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
           <t>['webcam noise canceling mic and speakers for video calls']</t>
         </is>
       </c>
-      <c r="W6" t="inlineStr">
+      <c r="X6" t="inlineStr">
         <is>
           <t>['no way to quickly adjust brightness on the monitor without going through menus']</t>
         </is>
       </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="Y6" t="inlineStr">
         <is>
           <t>[]</t>
@@ -1240,95 +1255,98 @@
         </is>
       </c>
       <c r="AA6" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t xml:space="preserve">Q24G2A </t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>AOC</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>Gaming</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Germany</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>madeup2</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>still made up</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>https://openai.com/index/chatgpt/</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>['24 wqhd ips panel', '165 hz refresh rate', 'full srgb colour space coverage 989', 'freesync premium gsync compatible', 'flickerfree low blue light technologies', 'ergonomic design with slim bezels', '24 wqhd ips panel', '165 hz refresh rate', 'full srgb colour space coverage 989', 'freesync premium gsync compatible', 'flickerfree low blue light technologies', 'ergonomic design with slim bezels']</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>['compromise in screen diagonal – although this results in a higher pixel density', 'full 165 hz only available via displayport 12 – be mindful of which port is used', 'compromise in screen diagonal – although this results in a higher pixel density', 'full 165 hz only available via displayport 12 – be mindful of which port is used']</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>we give it an unreserved buy recommendation you will hardly find a better qhd monitor for this price</t>
         </is>
       </c>
-      <c r="K7" t="n">
+      <c r="L7" t="n">
         <v>0.1041666666666667</v>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>positive</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>['hardly', 'better qhd', 'qhd monitor', 'qhd', 'buy recommendation']</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>['24 wqhd ips panel', 'full srgb colour space coverage 989', '24 wqhd ips panel', 'full srgb colour space coverage 989']</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="P7" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
           <t>['165 hz refresh rate', '165 hz refresh rate']</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="R7" t="inlineStr">
         <is>
           <t>[]</t>
@@ -1336,29 +1354,29 @@
       </c>
       <c r="S7" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
           <t>['full 165 hz only available via displayport 12 – be mindful of which port is used', 'full 165 hz only available via displayport 12 – be mindful of which port is used']</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>['ergonomic design with slim bezels', 'ergonomic design with slim bezels']</t>
         </is>
       </c>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="V7" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
           <t>['freesync premium gsync compatible', 'freesync premium gsync compatible']</t>
         </is>
       </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="X7" t="inlineStr">
         <is>
           <t>[]</t>
@@ -1375,105 +1393,108 @@
         </is>
       </c>
       <c r="AA7" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t xml:space="preserve">Q27G3XMN </t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>AOC</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>Gaming</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Germany</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>madeup2</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>still made up</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>https://openai.com/index/chatgpt/</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>['27 wqhd va panel', 'mini led 336 local dimming zones', '985 dcip3 full srgb colour coverage', '180 hz refresh rate overclocked', 'amd freesync premium pro', 'low input lag and strong contrast', '27 wqhd va panel', 'mini led 336 local dimming zones', '985 dcip3 full srgb colour coverage', '180 hz refresh rate overclocked', 'amd freesync premium pro', 'low input lag and strong contrast']</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="J8" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
           <t>the combination of latency size resolution colour coverage and contrast makes this monitor unbeatable in its price range</t>
         </is>
       </c>
-      <c r="K8" t="n">
+      <c r="L8" t="n">
         <v>0</v>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>neutral</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="N8" t="inlineStr">
         <is>
           <t>['makes', 'resolution colour', 'price range', 'unbeatable price', 'unbeatable']</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="O8" t="inlineStr">
         <is>
           <t>['27 wqhd va panel', '985 dcip3 full srgb colour coverage', 'low input lag and strong contrast', '27 wqhd va panel', '985 dcip3 full srgb colour coverage', 'low input lag and strong contrast']</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="P8" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
           <t>['180 hz refresh rate overclocked', 'low input lag and strong contrast', '180 hz refresh rate overclocked', 'low input lag and strong contrast']</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="R8" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
           <t>['low input lag and strong contrast', 'low input lag and strong contrast']</t>
         </is>
       </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="T8" t="inlineStr">
         <is>
           <t>[]</t>
@@ -1486,14 +1507,14 @@
       </c>
       <c r="V8" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
           <t>['amd freesync premium pro', 'amd freesync premium pro']</t>
         </is>
       </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="X8" t="inlineStr">
         <is>
           <t>[]</t>
@@ -1510,125 +1531,128 @@
         </is>
       </c>
       <c r="AA8" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t xml:space="preserve">AG276QZD </t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>AOC</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>Gaming</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Germany</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>madeup3</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>still made up</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>https://openai.com/index/chatgpt/</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>['265 wqhd oled panel with mla micro lens array', '240 hz refresh rate', 'nearly 100 dcip3 and true 10bit colour depth', 'outstanding results in colour accuracy gamma and white point when limited to srgb – this model performs exceptionally well in these areas', 'amd freesync premium gsync compatible', 'excellent contrast and ultrafast response times', '2x displayport 14 2x hdmi 20', 'full ergonomic adjustability', '265 wqhd oled panel with mla micro lens array', '240 hz refresh rate', 'nearly 100 dcip3 and true 10bit colour depth', 'outstanding results in colour accuracy gamma and white point when limited to srgb – this model performs exceptionally well in these areas', 'amd freesync premium gsync compatible', 'excellent contrast and ultrafast response times', '2x displayport 14 2x hdmi 20', 'full ergonomic adjustability']</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="J9" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
           <t>in our opinion this monitor currently offers the best priceperformance ratio and a great entry into oled panels”</t>
         </is>
       </c>
-      <c r="K9" t="n">
+      <c r="L9" t="n">
         <v>0.6333333333333334</v>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>positive</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="N9" t="inlineStr">
         <is>
           <t>['currently offers', 'priceperformance ratio', 'offers best', 'monitor currently', 'great entry']</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>['265 wqhd oled panel with mla micro lens array', 'outstanding results in colour accuracy gamma and white point when limited to srgb – this model performs exceptionally well in these areas', 'excellent contrast and ultrafast response times', '265 wqhd oled panel with mla micro lens array', 'outstanding results in colour accuracy gamma and white point when limited to srgb – this model performs exceptionally well in these areas', 'excellent contrast and ultrafast response times']</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="P9" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
           <t>['240 hz refresh rate', 'excellent contrast and ultrafast response times', '240 hz refresh rate', 'excellent contrast and ultrafast response times']</t>
         </is>
       </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="R9" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
           <t>['2x displayport 14 2x hdmi 20', '2x displayport 14 2x hdmi 20']</t>
         </is>
       </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="T9" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
           <t>['nearly 100 dcip3 and true 10bit colour depth', 'outstanding results in colour accuracy gamma and white point when limited to srgb – this model performs exceptionally well in these areas', 'full ergonomic adjustability', 'nearly 100 dcip3 and true 10bit colour depth', 'outstanding results in colour accuracy gamma and white point when limited to srgb – this model performs exceptionally well in these areas', 'full ergonomic adjustability']</t>
         </is>
       </c>
-      <c r="U9" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="V9" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
           <t>['amd freesync premium gsync compatible', 'amd freesync premium gsync compatible']</t>
         </is>
       </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="X9" t="inlineStr">
         <is>
           <t>[]</t>
@@ -1645,115 +1669,118 @@
         </is>
       </c>
       <c r="AA9" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>CQ32G4VE</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>AOC</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>Gaming</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>Germany</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>madeup4</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>still made up</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>https://openai.com/index/chatgpt/</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>['moderate curve of 1500r – feels quite natural gives a little extra feeling of depth and immersion while playing games and watching movies', '315” size qhd provides decent text clarity', '180 hz refresh rate via dp 14', 'vrr also gsync compatible', 'offers good glare handling', '100 x 100 vesa mounting possible', 'respectable srgb colour accuracy with an average deltae of 122', 'generous brightness adjustment range between 39 and 398 nits', 'exceptional va contrast performance measured contrast ratio of 40751', 'overall pretty vibrant colour experience', 'decent viewing angles for a va panel', 'very low input lag of 198 ms', 'mbr setting is very useful significantly reduces bluer and improves clarity although it is only available if adaptivesync is disabled in this case you can use “mbr sync” setting which is not recommended', 'price performance']</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>['using hdmi you are limited to144 hz and you can’t use gsync compatible', 'there is no independent sharpness control in the osd – but you can use one of the hdr modes for oversharping eg hdr picture', 'restricted scaling opportunities you can’t access the image ratio setting using the native resolution or if adaptivesync or low input lag is enabled', 'only tilt', 'text representation is a bit soft', 'some clouding at the top and bottom edges of the screen', 'some colour inconsistencies', 'low response time in “fastest” setting comes with significant overshoot']</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>in terms of its performance the usual va strengths when it came to contrast bit of a va glow bit of clouding at the top and bottom of the screen as well but the overall contrast experience was on the stronger side for an lcd the colour performance was also quite good for the panel type … and i also think the resolution and the overall pixel density is one which many people get on quite well it is quite a nice combination is you want an immersive screen and you are not interested in 4k because of your budget because of your systems performance or simply because of your own preferences … with this price in mind i think you do get a lot of monitor for your money i think it is a nice monitor to use for a range of different applications whether it’s gaming watching some video content or just on the desktop and i think aoc has put the panel it uses to good use</t>
         </is>
       </c>
-      <c r="K10" t="n">
+      <c r="L10" t="n">
         <v>0.2942307692307692</v>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>positive</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>['think', 'quite', 'performance', 'va', 'bit']</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>['respectable srgb colour accuracy with an average deltae of 122', 'generous brightness adjustment range between 39 and 398 nits', 'exceptional va contrast performance measured contrast ratio of 40751', 'decent viewing angles for a va panel']</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="P10" t="inlineStr">
         <is>
           <t>['there is no independent sharpness control in the osd – but you can use one of the hdr modes for oversharping eg hdr picture', 'restricted scaling opportunities you can’t access the image ratio setting using the native resolution or if adaptivesync or low input lag is enabled']</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
+      <c r="Q10" t="inlineStr">
         <is>
           <t>['180 hz refresh rate via dp 14', 'very low input lag of 198 ms']</t>
         </is>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="R10" t="inlineStr">
         <is>
           <t>['restricted scaling opportunities you can’t access the image ratio setting using the native resolution or if adaptivesync or low input lag is enabled', 'low response time in “fastest” setting comes with significant overshoot']</t>
         </is>
       </c>
-      <c r="R10" t="inlineStr">
+      <c r="S10" t="inlineStr">
         <is>
           <t>['180 hz refresh rate via dp 14', 'very low input lag of 198 ms']</t>
         </is>
       </c>
-      <c r="S10" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>['using hdmi you are limited to144 hz and you can’t use gsync compatible', 'restricted scaling opportunities you can’t access the image ratio setting using the native resolution or if adaptivesync or low input lag is enabled']</t>
         </is>
       </c>
-      <c r="T10" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>['moderate curve of 1500r – feels quite natural gives a little extra feeling of depth and immersion while playing games and watching movies', '315” size qhd provides decent text clarity']</t>
         </is>
       </c>
-      <c r="U10" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="V10" t="inlineStr">
         <is>
           <t>[]</t>
@@ -1761,239 +1788,245 @@
       </c>
       <c r="W10" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
           <t>['there is no independent sharpness control in the osd – but you can use one of the hdr modes for oversharping eg hdr picture']</t>
         </is>
       </c>
-      <c r="X10" t="inlineStr">
+      <c r="Y10" t="inlineStr">
         <is>
           <t>['price performance']</t>
         </is>
       </c>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="Z10" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t xml:space="preserve">24G42E </t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>AOC</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>Gaming</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>Germany</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>madeup5</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>still made up</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>https://openai.com/index/chatgpt/</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>['180 hz refresh rate', 'gsync compatibility', 'low input lag', 'fhd is enough for the 24” size', 'excellent colour richness and accuracy at the right settings', 'gmenu is a great software solution for settings', 'affordable price', 'suitable for general everyday and office use as well in addition to gaming']</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>['average contrast and viewing angles', 'osd navigation with the buttons takes time to get used to', 'limited adjustability']</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>all in all we were very satisfied with it because for the price the knowledge is outstanding its a great buy for someone who doesnt want to or cant spend a lot on a monitor theyll use for gaming</t>
         </is>
       </c>
-      <c r="K11" t="n">
+      <c r="L11" t="n">
         <v>0.65</v>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>positive</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="N11" t="inlineStr">
         <is>
           <t>['monitor theyll', 'outstanding', 'knowledge outstanding', 'knowledge', 'spend lot']</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="O11" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
           <t>['average contrast and viewing angles']</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
+      <c r="Q11" t="inlineStr">
         <is>
           <t>['180 hz refresh rate', 'low input lag']</t>
         </is>
       </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="R11" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
           <t>['low input lag']</t>
         </is>
       </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="T11" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
           <t>['fhd is enough for the 24” size']</t>
         </is>
       </c>
-      <c r="U11" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="V11" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
           <t>['gmenu is a great software solution for settings']</t>
         </is>
       </c>
-      <c r="W11" t="inlineStr">
+      <c r="X11" t="inlineStr">
         <is>
           <t>['osd navigation with the buttons takes time to get used to']</t>
         </is>
       </c>
-      <c r="X11" t="inlineStr">
+      <c r="Y11" t="inlineStr">
         <is>
           <t>['affordable price']</t>
         </is>
       </c>
-      <c r="Y11" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="Z11" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
         <is>
           <t xml:space="preserve">U27B3CF </t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>AOC</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>Gaming</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>Germany</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>madeup1</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>still made up</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>https://openai.com/index/chatgpt/</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>['100 x 100 vesa mount', 'kensington lock', 'rich connectivity ability to connect multiple devices thanks to 2 x hdmi 20 1 x usbc 32 with 65w pd usb 32 gen 1 with fast charging headphone output', 'tilt and height adjustment', 'great colour coverage ideal for photo and video editing', '178178 viewing angles of the 4k ips panel', 'lowblue mode flicker free technology', '4 ms gtg resposnse time makes it suitable for gaming as well', 'frameless design', 'macbook ps5 xbox compatibility', 'price tag amazing for the price point']</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>['lack of cable management', 'screwdriver is needed for the setup', 'joystick would be better for osd', 'kvm switch would be nice but at the price point it’s understandably missing']</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>after using this monitor for several months i believe it’s suited for those that are running a small business those who prioritise productivity over gaming or those looking for a monitor that is versatile and can connect multiple devices</t>
         </is>
       </c>
-      <c r="K12" t="n">
+      <c r="L12" t="n">
         <v>-0.08333333333333333</v>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>neutral</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="N12" t="inlineStr">
         <is>
           <t>['looking', 'months believe', 'productivity gaming', 'versatile connect', 'prioritise productivity']</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="O12" t="inlineStr">
         <is>
           <t>['178178 viewing angles of the 4k ips panel']</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="P12" t="inlineStr">
         <is>
           <t>[]</t>
@@ -2006,130 +2039,133 @@
       </c>
       <c r="R12" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
           <t>['rich connectivity ability to connect multiple devices thanks to 2 x hdmi 20 1 x usbc 32 with 65w pd usb 32 gen 1 with fast charging headphone output']</t>
         </is>
       </c>
-      <c r="S12" t="inlineStr">
+      <c r="T12" t="inlineStr">
         <is>
           <t>['kvm switch would be nice but at the price point it’s understandably missing']</t>
         </is>
       </c>
-      <c r="T12" t="inlineStr">
+      <c r="U12" t="inlineStr">
         <is>
           <t>['tilt and height adjustment', 'frameless design']</t>
         </is>
       </c>
-      <c r="U12" t="inlineStr">
+      <c r="V12" t="inlineStr">
         <is>
           <t>['kvm switch would be nice but at the price point it’s understandably missing']</t>
         </is>
       </c>
-      <c r="V12" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="W12" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
           <t>['joystick would be better for osd']</t>
         </is>
       </c>
-      <c r="X12" t="inlineStr">
+      <c r="Y12" t="inlineStr">
         <is>
           <t>['price tag amazing for the price point']</t>
         </is>
       </c>
-      <c r="Y12" t="inlineStr">
+      <c r="Z12" t="inlineStr">
         <is>
           <t>['kvm switch would be nice but at the price point it’s understandably missing']</t>
         </is>
       </c>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="AA12" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
         <is>
           <t xml:space="preserve">24G4X </t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>AOC</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>Gaming</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>Germany</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>madeup1</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>still made up 2</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>https://openai.com/index/chatgpt/</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>['best beginner’s monitor', 'height and tilt adjustable', 'good colour reproduction']</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>['comparatively weak contrast']</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="n">
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="n">
         <v>0</v>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>neutral</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="N13" t="inlineStr">
         <is>
           <t>['youre eyeing', 'explicitly', 'fantastic', 'falls just', 'falls']</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="O13" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
           <t>['comparatively weak contrast']</t>
         </is>
       </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="Q13" t="inlineStr">
         <is>
           <t>[]</t>
@@ -2147,14 +2183,14 @@
       </c>
       <c r="T13" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
           <t>['height and tilt adjustable']</t>
         </is>
       </c>
-      <c r="U13" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="V13" t="inlineStr">
         <is>
           <t>[]</t>
@@ -2181,81 +2217,84 @@
         </is>
       </c>
       <c r="AA13" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t xml:space="preserve">AG405UXC </t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>AOC</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>Gaming</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>Germany</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>madeup1</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>still made up 2</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>https://openai.com/index/chatgpt/</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>['good contrast ratio', 'very good colour gamut coverage up to 100 srgb after calibration', 'kvm switch 90 w pd via usbc', 'configurable per pc via usbc']</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr">
+      <c r="J14" t="inlineStr">
         <is>
           <t>['flat screen offers less immersion when gaming']</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="n">
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="n">
         <v>0</v>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="M14" t="inlineStr">
         <is>
           <t>neutral</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr">
+      <c r="N14" t="inlineStr">
         <is>
           <t>['youre eyeing', 'explicitly', 'fantastic', 'falls just', 'falls']</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr">
+      <c r="O14" t="inlineStr">
         <is>
           <t>['good contrast ratio', 'very good colour gamut coverage up to 100 srgb after calibration']</t>
         </is>
       </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="P14" t="inlineStr">
         <is>
           <t>[]</t>
@@ -2268,14 +2307,14 @@
       </c>
       <c r="R14" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
           <t>['kvm switch 90 w pd via usbc', 'configurable per pc via usbc']</t>
         </is>
       </c>
-      <c r="S14" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="T14" t="inlineStr">
         <is>
           <t>[]</t>
@@ -2312,81 +2351,84 @@
         </is>
       </c>
       <c r="AA14" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="AB14" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
         <is>
           <t>34M2C6500</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>Philips</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>B2C</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>Germany</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>madeup1</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>still made up 2</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>https://openai.com/index/chatgpt/</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>['3rd generation qdoled panel', 'fast bright colourful']</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr">
+      <c r="J15" t="inlineStr">
         <is>
           <t>['few gaming features']</t>
         </is>
       </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="n">
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="n">
         <v>0</v>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="M15" t="inlineStr">
         <is>
           <t>neutral</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr">
+      <c r="N15" t="inlineStr">
         <is>
           <t>['youre eyeing', 'explicitly', 'fantastic', 'falls just', 'falls']</t>
         </is>
       </c>
-      <c r="N15" t="inlineStr">
+      <c r="O15" t="inlineStr">
         <is>
           <t>['3rd generation qdoled panel']</t>
         </is>
       </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="P15" t="inlineStr">
         <is>
           <t>[]</t>
@@ -2443,81 +2485,84 @@
         </is>
       </c>
       <c r="AA15" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="AB15" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
         <is>
           <t>27M2N8500</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>Philips</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>B2C</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>Germany</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>madeup1</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>still made up 2</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>https://openai.com/index/chatgpt/</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>['3rd generation qdoled panel', 'fast bright colourful']</t>
         </is>
       </c>
-      <c r="I16" t="inlineStr">
+      <c r="J16" t="inlineStr">
         <is>
           <t>['few gaming features']</t>
         </is>
       </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="n">
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="n">
         <v>0</v>
       </c>
-      <c r="L16" t="inlineStr">
+      <c r="M16" t="inlineStr">
         <is>
           <t>neutral</t>
         </is>
       </c>
-      <c r="M16" t="inlineStr">
+      <c r="N16" t="inlineStr">
         <is>
           <t>['youre eyeing', 'explicitly', 'fantastic', 'falls just', 'falls']</t>
         </is>
       </c>
-      <c r="N16" t="inlineStr">
+      <c r="O16" t="inlineStr">
         <is>
           <t>['3rd generation qdoled panel']</t>
         </is>
       </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="P16" t="inlineStr">
         <is>
           <t>[]</t>
@@ -2574,86 +2619,89 @@
         </is>
       </c>
       <c r="AA16" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="AB16" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
         <is>
           <t>AG346UCD</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>AOC</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>Gaming</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>Germany</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>madeup1</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>still made up 2</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>https://openai.com/index/chatgpt/</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>['219 uwqhd resolution', 'rich colours']</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr">
+      <c r="J17" t="inlineStr">
         <is>
           <t>['2nd generation qdoled panel', 'hdmi 20 dp 14']</t>
         </is>
       </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="n">
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="n">
         <v>0</v>
       </c>
-      <c r="L17" t="inlineStr">
+      <c r="M17" t="inlineStr">
         <is>
           <t>neutral</t>
         </is>
       </c>
-      <c r="M17" t="inlineStr">
+      <c r="N17" t="inlineStr">
         <is>
           <t>['youre eyeing', 'explicitly', 'fantastic', 'falls just', 'falls']</t>
         </is>
       </c>
-      <c r="N17" t="inlineStr">
+      <c r="O17" t="inlineStr">
         <is>
           <t>['219 uwqhd resolution']</t>
         </is>
       </c>
-      <c r="O17" t="inlineStr">
+      <c r="P17" t="inlineStr">
         <is>
           <t>['2nd generation qdoled panel']</t>
         </is>
       </c>
-      <c r="P17" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="Q17" t="inlineStr">
         <is>
           <t>[]</t>
@@ -2666,14 +2714,14 @@
       </c>
       <c r="S17" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
           <t>['hdmi 20 dp 14']</t>
         </is>
       </c>
-      <c r="T17" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="U17" t="inlineStr">
         <is>
           <t>[]</t>
@@ -2705,81 +2753,84 @@
         </is>
       </c>
       <c r="AA17" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="AB17" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
         <is>
           <t>AG276QZD2</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>AOC</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>Gaming</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>Germany</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>madeup1</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>still made up 2</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>https://openai.com/index/chatgpt/</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>['3rd generation qdoled panel', 'still good colours and brightness', 'affordable']</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr">
+      <c r="J18" t="inlineStr">
         <is>
           <t>['hdmi 20 dp 14']</t>
         </is>
       </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="n">
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="n">
         <v>0</v>
       </c>
-      <c r="L18" t="inlineStr">
+      <c r="M18" t="inlineStr">
         <is>
           <t>neutral</t>
         </is>
       </c>
-      <c r="M18" t="inlineStr">
+      <c r="N18" t="inlineStr">
         <is>
           <t>['youre eyeing', 'explicitly', 'fantastic', 'falls just', 'falls']</t>
         </is>
       </c>
-      <c r="N18" t="inlineStr">
+      <c r="O18" t="inlineStr">
         <is>
           <t>['3rd generation qdoled panel', 'still good colours and brightness']</t>
         </is>
       </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="P18" t="inlineStr">
         <is>
           <t>[]</t>
@@ -2797,14 +2848,14 @@
       </c>
       <c r="S18" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
           <t>['hdmi 20 dp 14']</t>
         </is>
       </c>
-      <c r="T18" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="U18" t="inlineStr">
         <is>
           <t>[]</t>
@@ -2822,94 +2873,97 @@
       </c>
       <c r="X18" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Y18" t="inlineStr">
+        <is>
           <t>['affordable']</t>
         </is>
       </c>
-      <c r="Y18" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="Z18" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="AB18" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
         <is>
           <t xml:space="preserve">27B2U6903 </t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>Philips</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>B2B</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>Germany</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>madeup1</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>still made up 2</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>https://openai.com/index/chatgpt/</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>['thunderbolt 4 and 25 gbit ethernet connectivity', 'from a design standpoint a breath of fresh air', 'simple front mounted osd buttons more usable than rearmounted thumbstick', 'crisp detailed display', 'great range of additional inputs', 'negates the need for a usb hub', 'compact stand', 'thunderbolt 4 and 25 gbit ethernet connectivity', 'from a design standpoint a breath of fresh air', 'simple front mounted osd buttons more usable than rearmounted thumbstick']</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr">
+      <c r="J19" t="inlineStr">
         <is>
           <t>['very expensive', 'some features don’t deliver reg powersensor 2 “no matter which combination of settings i tried on the monitor and in windows 11s own settings the behaviour of the monitor didn’t change perhaps my environment isn’t well suited perhaps i got a dud sensor perhaps i’m a ghost and i don’t know it”', 'average speaker quality']</t>
         </is>
       </c>
-      <c r="J19" t="inlineStr">
+      <c r="K19" t="inlineStr">
         <is>
           <t>the philips 27b2u6903 is an excellent 4k monitor with what is essentially an onboard fullyfeatured usb hub – however this pushes the price into the top floors of a london skyscraper … the philips 27b2u6903 is the first monitor i’ve used that features a 25 gbpsrated ethernet port and it’s this inclusion that was the most impactful adding network connectivity meant i was able to ditch my usb hub and run everything through the philips 27b2u6903 freeing up desk space and simplifying the whole process a single included thunderbolt 4 cable connection to my laptop had me using an external display external devices external network connections all while charging my laptop at full beans too … in the areas that matter most while you’re working the philips 27b2u6903 really shines this selflabelled ‘business monitor’ puts in an effort worthy of employee of the month with a supercrisp 4k display and enough additional ports that you can say goodbye to your usb hub … if you appreciate simplicity and can stomach the cost or have your employer buy it for you then philips 27b2u6903 is a great monitor for work</t>
         </is>
       </c>
-      <c r="K19" t="n">
+      <c r="L19" t="n">
         <v>0.2977591036414566</v>
       </c>
-      <c r="L19" t="inlineStr">
+      <c r="M19" t="inlineStr">
         <is>
           <t>positive</t>
         </is>
       </c>
-      <c r="M19" t="inlineStr">
+      <c r="N19" t="inlineStr">
         <is>
           <t>['philips 27b2u6903', '27b2u6903', 'philips', 'hub', 'usb']</t>
         </is>
       </c>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="O19" t="inlineStr">
         <is>
           <t>[]</t>
@@ -2927,174 +2981,177 @@
       </c>
       <c r="R19" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
           <t>['from a design standpoint a breath of fresh air', 'great range of additional inputs', 'negates the need for a usb hub', 'from a design standpoint a breath of fresh air']</t>
         </is>
       </c>
-      <c r="S19" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="T19" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
           <t>['from a design standpoint a breath of fresh air', 'compact stand', 'from a design standpoint a breath of fresh air']</t>
         </is>
       </c>
-      <c r="U19" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="V19" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr">
+        <is>
           <t>['simple front mounted osd buttons more usable than rearmounted thumbstick', 'simple front mounted osd buttons more usable than rearmounted thumbstick']</t>
         </is>
       </c>
-      <c r="W19" t="inlineStr">
+      <c r="X19" t="inlineStr">
         <is>
           <t>['average speaker quality']</t>
         </is>
       </c>
-      <c r="X19" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="Y19" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Z19" t="inlineStr">
+        <is>
           <t>['very expensive']</t>
         </is>
       </c>
-      <c r="Z19" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="AA19" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="AB19" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
         <is>
           <t xml:space="preserve">42M2N8900 </t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="C20" t="inlineStr">
         <is>
           <t>Philips</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>B2C</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>UK</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>madeup1</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>still made up 2</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>https://openai.com/index/chatgpt/</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>['massive 42inch 415inch viewable 4k oled panel', '120 hz refresh rate overclockable to 138 hz', 'excellent 01 ms gtg response time', 'amd freesync support', 'two hdmi 21 ports for console gaming displayport 14 and usbc connectivity', 'usb hub with fast charging', 'kvm support', 'pictureinpicture and picturebypicture capabilities', 'great for content creation 94 adobe rgb 131 srgb 110 ntsc', 'excellent viewing angles 178° horizontal and vertical', '450 nits peak brightness', '10bit colour support', 'impressive 15 million1 contrast ratio', 'ambiglow rgb lighting system with customisation options', 'builtin 10 w speakers with dts support', 'included remote control', 'height tilt and swivel adjustments', 'good cable management', 'antiglare coating low reflection 2 haze 25', 'massive 42inch 415inch viewable 4k oled panel', '120 hz refresh rate overclockable to 138 hz', 'excellent 01 ms gtg response time', 'amd freesync support', 'two hdmi 21 ports for console gaming displayport 14 and usbc connectivity', 'usb hub with fast charging', 'kvm support', 'pictureinpicture and picturebypicture capabilities', 'great for content creation 94 adobe rgb 131 srgb 110 ntsc', 'excellent viewing angles 178° horizontal and vertical', '450 nits peak brightness', '10bit colour support', 'impressive 15 million1 contrast ratio', 'ambiglow rgb lighting system with customisation options', 'builtin 10 w speakers with dts support', 'included remote control', 'height tilt and swivel adjustments', 'good cable management', 'antiglare coating low reflection 2 haze 25']</t>
         </is>
       </c>
-      <c r="I20" t="inlineStr">
+      <c r="J20" t="inlineStr">
         <is>
           <t>['no displayport 21 support – but also not supported by many gpus or consoles anyway', 'not as high refresh rate as some competitive gaming monitors', 'builtin speakers are just reasonable quality', '450 nits brightness not as high as some premium displays', 'size may be too large for competitive gaming', 'large footprint requires significant desk space', 'rear joystick control can be difficult to reach given the size', 'no displayport 21 support – but also not supported by many gpus or consoles anyway', 'not as high refresh rate as some competitive gaming monitors', 'builtin speakers are just reasonable quality', '450 nits brightness not as high as some premium displays', 'size may be too large for competitive gaming', 'large footprint requires significant desk space', 'rear joystick control can be difficult to reach given the size']</t>
         </is>
       </c>
-      <c r="J20" t="inlineStr">
+      <c r="K20" t="inlineStr">
         <is>
           <t>the philips 42m2n8900 is a fantastic screen for gamers who want a more immersive experience and also perhaps are dabbling in content creation and professional usage i personally really like this display its been absolutely amazing for me ive really enjoyed it i want that big immersive display that absolutely drowns out my peripheral vision and i have to tell you guys playing a single player firstperson shooter with something like this or silent hill oh my goodness it is absolutely cool this panel is absolutely huge for a pc screen i find panels like this absolutely perfect for immersive gaming experience</t>
         </is>
       </c>
-      <c r="K20" t="n">
+      <c r="L20" t="n">
         <v>0.3214285714285715</v>
       </c>
-      <c r="L20" t="inlineStr">
+      <c r="M20" t="inlineStr">
         <is>
           <t>positive</t>
         </is>
       </c>
-      <c r="M20" t="inlineStr">
+      <c r="N20" t="inlineStr">
         <is>
           <t>['absolutely', 'like', 'immersive', 'display absolutely', 'screen']</t>
         </is>
       </c>
-      <c r="N20" t="inlineStr">
+      <c r="O20" t="inlineStr">
         <is>
           <t>['massive 42inch 415inch viewable 4k oled panel', 'great for content creation 94 adobe rgb 131 srgb 110 ntsc', '450 nits peak brightness', 'impressive 15 million1 contrast ratio', 'ambiglow rgb lighting system with customisation options', 'massive 42inch 415inch viewable 4k oled panel', 'great for content creation 94 adobe rgb 131 srgb 110 ntsc', '450 nits peak brightness', 'impressive 15 million1 contrast ratio', 'ambiglow rgb lighting system with customisation options']</t>
         </is>
       </c>
-      <c r="O20" t="inlineStr">
+      <c r="P20" t="inlineStr">
         <is>
           <t>['450 nits brightness not as high as some premium displays', '450 nits brightness not as high as some premium displays']</t>
         </is>
       </c>
-      <c r="P20" t="inlineStr">
+      <c r="Q20" t="inlineStr">
         <is>
           <t>['120 hz refresh rate overclockable to 138 hz', 'excellent 01 ms gtg response time', '120 hz refresh rate overclockable to 138 hz', 'excellent 01 ms gtg response time']</t>
         </is>
       </c>
-      <c r="Q20" t="inlineStr">
+      <c r="R20" t="inlineStr">
         <is>
           <t>['not as high refresh rate as some competitive gaming monitors', 'not as high refresh rate as some competitive gaming monitors']</t>
         </is>
       </c>
-      <c r="R20" t="inlineStr">
+      <c r="S20" t="inlineStr">
         <is>
           <t>['amd freesync support', 'two hdmi 21 ports for console gaming displayport 14 and usbc connectivity', 'usb hub with fast charging', 'kvm support', '10bit colour support', 'builtin 10 w speakers with dts support', 'amd freesync support', 'two hdmi 21 ports for console gaming displayport 14 and usbc connectivity', 'usb hub with fast charging', 'kvm support', '10bit colour support', 'builtin 10 w speakers with dts support']</t>
         </is>
       </c>
-      <c r="S20" t="inlineStr">
+      <c r="T20" t="inlineStr">
         <is>
           <t>['no displayport 21 support – but also not supported by many gpus or consoles anyway', 'no displayport 21 support – but also not supported by many gpus or consoles anyway']</t>
         </is>
       </c>
-      <c r="T20" t="inlineStr">
+      <c r="U20" t="inlineStr">
         <is>
           <t>['height tilt and swivel adjustments', 'height tilt and swivel adjustments']</t>
         </is>
       </c>
-      <c r="U20" t="inlineStr">
+      <c r="V20" t="inlineStr">
         <is>
           <t>['size may be too large for competitive gaming', 'rear joystick control can be difficult to reach given the size', 'size may be too large for competitive gaming', 'rear joystick control can be difficult to reach given the size']</t>
         </is>
       </c>
-      <c r="V20" t="inlineStr">
+      <c r="W20" t="inlineStr">
         <is>
           <t>['amd freesync support', 'builtin 10 w speakers with dts support', 'amd freesync support', 'builtin 10 w speakers with dts support']</t>
         </is>
       </c>
-      <c r="W20" t="inlineStr">
+      <c r="X20" t="inlineStr">
         <is>
           <t>['builtin speakers are just reasonable quality', 'builtin speakers are just reasonable quality']</t>
         </is>
       </c>
-      <c r="X20" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="Y20" t="inlineStr">
         <is>
           <t>[]</t>
@@ -3106,105 +3163,108 @@
         </is>
       </c>
       <c r="AA20" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="AB20" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
         <is>
           <t xml:space="preserve">AG326UD </t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>AOC</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>Gaming</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>UK</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>madeup1</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>still made up 2</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>https://openai.com/index/chatgpt/</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>['32inch qd oled panel', '4k resolution 3840x2160', '165 hz refresh rate', 'extremely fast 003 ms response time', 'hdmi 21 support for console gaming at 120 hz', 'displayport 14', 'adaptivesync technology', 'low input lag', 'displayhdr true black 400 certification', 'usb hub with fast charging port', 'builtin speakers', 'rgb illumination on the back', 'excellent colour reproduction and vibrant visuals', 'perfect for both gaming and content creation', 'good for watching highresolution content', 'good for larger workspaces when creating content', 'excellent viewing angles', '32inch qd oled panel', '4k resolution 3840x2160', '165 hz refresh rate', 'extremely fast 003 ms response time', 'hdmi 21 support for console gaming at 120 hz', 'displayport 14', 'adaptivesync technology', 'low input lag', 'displayhdr true black 400 certification', 'usb hub with fast charging port', 'builtin speakers', 'rgb illumination on the back', 'excellent colour reproduction and vibrant visuals', 'perfect for both gaming and content creation', 'good for watching highresolution content', 'good for larger workspaces when creating content', 'excellent viewing angles']</t>
         </is>
       </c>
-      <c r="I21" t="inlineStr">
+      <c r="J21" t="inlineStr">
         <is>
           <t>['glass panel may cause glare', 'colours might appear oversaturated especially for those with colour blindness', 'user interface could be larger', 'speakers arent the best quality', 'requires pixel caremaintenance common to all oleds', 'price might be higher than comparable lcd monitors', 'glass panel may cause glare', 'colours might appear oversaturated especially for those with colour blindness', 'user interface could be larger', 'speakers arent the best quality', 'requires pixel caremaintenance common to all oleds', 'price might be higher than comparable lcd monitors']</t>
         </is>
       </c>
-      <c r="J21" t="inlineStr">
+      <c r="K21" t="inlineStr">
         <is>
           <t>its a gaming monitor at heart its definitely got a lot of different functions especially the adaptivesync its got the overall really low response time its got the high 165 hz its qd oled … if youre a gamer but you also dabble in like content creation or you like watching very high resolution content then its definitely a good option for you its a gaming monitor its not the cheapest one but what i will say is the panel on this is very very good qdoled its a very good panel watching content on this is truly amazing and also the fact that its 32inch as well and below £1000 its fantastic in my eyes</t>
         </is>
       </c>
-      <c r="K21" t="n">
+      <c r="L21" t="n">
         <v>0.324</v>
       </c>
-      <c r="L21" t="inlineStr">
+      <c r="M21" t="inlineStr">
         <is>
           <t>positive</t>
         </is>
       </c>
-      <c r="M21" t="inlineStr">
+      <c r="N21" t="inlineStr">
         <is>
           <t>['got', 'content', 'good', 'definitely', 'gaming monitor']</t>
         </is>
       </c>
-      <c r="N21" t="inlineStr">
+      <c r="O21" t="inlineStr">
         <is>
           <t>['32inch qd oled panel', '4k resolution 3840x2160', 'displayhdr true black 400 certification', 'rgb illumination on the back', 'good for watching highresolution content', '32inch qd oled panel', '4k resolution 3840x2160', 'displayhdr true black 400 certification', 'rgb illumination on the back', 'good for watching highresolution content']</t>
         </is>
       </c>
-      <c r="O21" t="inlineStr">
+      <c r="P21" t="inlineStr">
         <is>
           <t>['glass panel may cause glare', 'requires pixel caremaintenance common to all oleds', 'glass panel may cause glare', 'requires pixel caremaintenance common to all oleds']</t>
         </is>
       </c>
-      <c r="P21" t="inlineStr">
+      <c r="Q21" t="inlineStr">
         <is>
           <t>['165 hz refresh rate', 'extremely fast 003 ms response time', 'low input lag', '165 hz refresh rate', 'extremely fast 003 ms response time', 'low input lag']</t>
         </is>
       </c>
-      <c r="Q21" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="R21" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
           <t>['hdmi 21 support for console gaming at 120 hz', 'displayport 14', 'low input lag', 'usb hub with fast charging port', 'hdmi 21 support for console gaming at 120 hz', 'displayport 14', 'low input lag', 'usb hub with fast charging port']</t>
         </is>
       </c>
-      <c r="S21" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="T21" t="inlineStr">
         <is>
           <t>[]</t>
@@ -3217,30 +3277,35 @@
       </c>
       <c r="V21" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="W21" t="inlineStr">
+        <is>
           <t>['displayhdr true black 400 certification', 'builtin speakers', 'displayhdr true black 400 certification', 'builtin speakers']</t>
         </is>
       </c>
-      <c r="W21" t="inlineStr">
+      <c r="X21" t="inlineStr">
         <is>
           <t>['speakers arent the best quality', 'speakers arent the best quality']</t>
         </is>
       </c>
-      <c r="X21" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="Y21" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Z21" t="inlineStr">
+        <is>
           <t>['price might be higher than comparable lcd monitors', 'price might be higher than comparable lcd monitors']</t>
         </is>
       </c>
-      <c r="Z21" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="AA21" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="AB21" t="inlineStr">
         <is>
           <t>[]</t>
         </is>

--- a/processed_reviews.xlsx
+++ b/processed_reviews.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB21"/>
+  <dimension ref="A1:AB54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -581,7 +581,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve">AG276QZD2 </t>
+          <t>AG276QZD2</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -591,29 +591,13 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>gaming</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>madeup1</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>still made up</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>https://openai.com/index/chatgpt/</t>
-        </is>
-      </c>
+          <t>GAMING</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
           <t>['brilliant qdoled panel', 'extremely fast response times', 'impressive refresh rate', 'very low latencies', 'fluid and crisp gaming experience', 'fantastic image quality in sdr and hdr', 'sleek design with good ergonomics', 'generally good workmanship', 'no active cooling unit', 'great priceperformance ratio', 'brilliant qdoled panel', 'extremely fast response times', 'impressive refresh rate', 'very low latencies', 'fluid and crisp gaming experience', 'fantastic image quality in sdr and hdr', 'sleek design with good ergonomics', 'generally good workmanship', 'no active cooling unit', 'great priceperformance ratio']</t>
@@ -639,7 +623,7 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>['deltae', 'tpv', '94', 'deltae 94', 'measure']</t>
+          <t>['deltae', 'tpv', '94', '2000', 'measure']</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -719,7 +703,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve">24G42E </t>
+          <t>24G42E</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -729,29 +713,13 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>gaming</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>madeup2</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>still made up</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>https://openai.com/index/chatgpt/</t>
-        </is>
-      </c>
+          <t>GAMING</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr">
         <is>
           <t>['cables are included in the box', 'fhd fits to the 238” size', 'gmenu application', 'excellent motion blurfree gaming experience', 'gsync compatible', 'hight 180 hz refresh rate', 'great ips panel', 'very easy to assemble', 'hdmi and dp inputs', 'headphone output', 'all the goodies of the world packed in a clear menu', 'dedicated buttons no need to control the menu with a joystick', 'vesa compatibility', 'cables are included in the box', 'fhd fits to the 238” size', 'gmenu application', 'excellent motion blurfree gaming experience', 'gsync compatible']</t>
@@ -777,7 +745,7 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>['high refresh', 'thousand', '60', 'refresh', 'high']</t>
+          <t>['high refresh', '60', 'thousand', 'refresh', 'high']</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -857,7 +825,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t xml:space="preserve">27B2G5500 </t>
+          <t>27B2G5500</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -870,26 +838,10 @@
           <t>B2B</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>madeup3</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>still made up</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>https://openai.com/index/chatgpt/</t>
-        </is>
-      </c>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr">
         <is>
           <t>['100 hz refresh rate', '2560 x 1440 quad hd 27” size 109 ppi', 'ips panel with 167m colours', 'lightsensor and powersensor for energy saving', 'headphone holder', 'rich connectivity including hdmi 20 x 2 displayport 14 x 1', 'builtin power supply', 'compact size and beautiful design of the monitor stand', 'osd interface is very userfriendly and simple', 'good price performance']</t>
@@ -915,7 +867,7 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>['office', 'home use', 'overall', 'experience', 'home']</t>
+          <t>['office', 'home use', 'overall', 'home', 'experience']</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -995,7 +947,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t xml:space="preserve">34B2U5600C </t>
+          <t>34B2U5600C</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1008,26 +960,10 @@
           <t>B2B</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>madeup1</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>still made up</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>https://openai.com/index/chatgpt/</t>
-        </is>
-      </c>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr">
         <is>
           <t>['120 hz refresh rate', '3440 x 1440 wqhd resolution', '34’’ size curved display', 'usbc rj45 connectivity', 'hdmi 20 x 2 displayport 14 x 1', 'smart kvm switch', 'great for home office and gaming as well', 'stable and welldesigned monitor stand also provides good cable management', 'headphone holder', 'built in power supply', 'powersensor and lightsensor for energy saving', 'excellent colour precision in the tests']</t>
@@ -1053,7 +989,7 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>['doesn', 'curved', '34b2u5600c', 'office', 'philips']</t>
+          <t>['34b2u5600c', 'doesn', 'curved', 'office', 'price']</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -1133,7 +1069,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t xml:space="preserve">27B1U5601H </t>
+          <t>27B1U5601H</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1146,26 +1082,10 @@
           <t>B2B</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>madeup2</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>still made up</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>https://openai.com/index/chatgpt/</t>
-        </is>
-      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr">
         <is>
           <t>['solid design that fits into any work space', 'high quality sturdy and easily adjustable stand', 'great ips display with a refresh rate of 75 hz', 'multiple convenient ways to connect a computer', 'integrated usb hub for peripherals', 'usbc with power delivery', 'rj45 port', 'webcam noise canceling mic and speakers for video calls']</t>
@@ -1191,7 +1111,7 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>['tool', 'allows focus', 'allows', 'work philips', '27b1u5601h']</t>
+          <t>['tool', 'tool home', 'work philips', 'unobtrusive', 'monitor tool']</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -1271,7 +1191,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Q24G2A </t>
+          <t>Q24G2A</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1281,29 +1201,13 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Gaming</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>madeup2</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>still made up</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>https://openai.com/index/chatgpt/</t>
-        </is>
-      </c>
+          <t>GAMING</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr">
         <is>
           <t>['24 wqhd ips panel', '165 hz refresh rate', 'full srgb colour space coverage 989', 'freesync premium gsync compatible', 'flickerfree low blue light technologies', 'ergonomic design with slim bezels', '24 wqhd ips panel', '165 hz refresh rate', 'full srgb colour space coverage 989', 'freesync premium gsync compatible', 'flickerfree low blue light technologies', 'ergonomic design with slim bezels']</t>
@@ -1329,7 +1233,7 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>['hardly', 'better qhd', 'qhd monitor', 'qhd', 'buy recommendation']</t>
+          <t>['better qhd', 'monitor price', 'qhd monitor', 'hardly', 'hardly better']</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -1409,7 +1313,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Q27G3XMN </t>
+          <t>Q27G3XMN</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1419,29 +1323,13 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Gaming</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>madeup2</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>still made up</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>https://openai.com/index/chatgpt/</t>
-        </is>
-      </c>
+          <t>GAMING</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr">
         <is>
           <t>['27 wqhd va panel', 'mini led 336 local dimming zones', '985 dcip3 full srgb colour coverage', '180 hz refresh rate overclocked', 'amd freesync premium pro', 'low input lag and strong contrast', '27 wqhd va panel', 'mini led 336 local dimming zones', '985 dcip3 full srgb colour coverage', '180 hz refresh rate overclocked', 'amd freesync premium pro', 'low input lag and strong contrast']</t>
@@ -1467,7 +1355,7 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>['makes', 'resolution colour', 'price range', 'unbeatable price', 'unbeatable']</t>
+          <t>['coverage', 'unbeatable price', 'latency size', 'coverage contrast', 'size resolution']</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -1547,7 +1435,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t xml:space="preserve">AG276QZD </t>
+          <t>AG276QZD</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1557,29 +1445,13 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Gaming</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>madeup3</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>still made up</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>https://openai.com/index/chatgpt/</t>
-        </is>
-      </c>
+          <t>GAMING</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr">
         <is>
           <t>['265 wqhd oled panel with mla micro lens array', '240 hz refresh rate', 'nearly 100 dcip3 and true 10bit colour depth', 'outstanding results in colour accuracy gamma and white point when limited to srgb – this model performs exceptionally well in these areas', 'amd freesync premium gsync compatible', 'excellent contrast and ultrafast response times', '2x displayport 14 2x hdmi 20', 'full ergonomic adjustability', '265 wqhd oled panel with mla micro lens array', '240 hz refresh rate', 'nearly 100 dcip3 and true 10bit colour depth', 'outstanding results in colour accuracy gamma and white point when limited to srgb – this model performs exceptionally well in these areas', 'amd freesync premium gsync compatible', 'excellent contrast and ultrafast response times', '2x displayport 14 2x hdmi 20', 'full ergonomic adjustability']</t>
@@ -1605,7 +1477,7 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>['currently offers', 'priceperformance ratio', 'offers best', 'monitor currently', 'great entry']</t>
+          <t>['opinion monitor', 'oled panels', 'priceperformance ratio', 'entry oled', 'great entry']</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -1695,29 +1567,13 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Gaming</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>madeup4</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>still made up</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>https://openai.com/index/chatgpt/</t>
-        </is>
-      </c>
+          <t>GAMING</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr">
         <is>
           <t>['moderate curve of 1500r – feels quite natural gives a little extra feeling of depth and immersion while playing games and watching movies', '315” size qhd provides decent text clarity', '180 hz refresh rate via dp 14', 'vrr also gsync compatible', 'offers good glare handling', '100 x 100 vesa mounting possible', 'respectable srgb colour accuracy with an average deltae of 122', 'generous brightness adjustment range between 39 and 398 nits', 'exceptional va contrast performance measured contrast ratio of 40751', 'overall pretty vibrant colour experience', 'decent viewing angles for a va panel', 'very low input lag of 198 ms', 'mbr setting is very useful significantly reduces bluer and improves clarity although it is only available if adaptivesync is disabled in this case you can use “mbr sync” setting which is not recommended', 'price performance']</t>
@@ -1743,7 +1599,7 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>['think', 'quite', 'performance', 'va', 'bit']</t>
+          <t>['think', 'quite', 'performance', 'bit', 'va']</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -1823,7 +1679,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t xml:space="preserve">24G42E </t>
+          <t>24G42E</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1833,29 +1689,13 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Gaming</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>madeup5</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>still made up</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>https://openai.com/index/chatgpt/</t>
-        </is>
-      </c>
+          <t>GAMING</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr">
         <is>
           <t>['180 hz refresh rate', 'gsync compatibility', 'low input lag', 'fhd is enough for the 24” size', 'excellent colour richness and accuracy at the right settings', 'gmenu is a great software solution for settings', 'affordable price', 'suitable for general everyday and office use as well in addition to gaming']</t>
@@ -1881,7 +1721,7 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>['monitor theyll', 'outstanding', 'knowledge outstanding', 'knowledge', 'spend lot']</t>
+          <t>['satisfied price', 'doesnt want', 'theyll', 'great buy', 'use gaming']</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -1961,7 +1801,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t xml:space="preserve">U27B3CF </t>
+          <t>U27B3CF</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1971,29 +1811,13 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Gaming</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>madeup1</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>still made up</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>https://openai.com/index/chatgpt/</t>
-        </is>
-      </c>
+          <t>GAMING</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr">
         <is>
           <t>['100 x 100 vesa mount', 'kensington lock', 'rich connectivity ability to connect multiple devices thanks to 2 x hdmi 20 1 x usbc 32 with 65w pd usb 32 gen 1 with fast charging headphone output', 'tilt and height adjustment', 'great colour coverage ideal for photo and video editing', '178178 viewing angles of the 4k ips panel', 'lowblue mode flicker free technology', '4 ms gtg resposnse time makes it suitable for gaming as well', 'frameless design', 'macbook ps5 xbox compatibility', 'price tag amazing for the price point']</t>
@@ -2019,7 +1843,7 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>['looking', 'months believe', 'productivity gaming', 'versatile connect', 'prioritise productivity']</t>
+          <t>['small business', 'versatile connect', 'prioritise productivity', 'believe', 'believe suited']</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
@@ -2099,7 +1923,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t xml:space="preserve">24G4X </t>
+          <t>24G4X</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -2109,29 +1933,13 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Gaming</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>madeup1</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>still made up 2</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>https://openai.com/index/chatgpt/</t>
-        </is>
-      </c>
+          <t>GAMING</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr">
         <is>
           <t>['best beginner’s monitor', 'height and tilt adjustable', 'good colour reproduction']</t>
@@ -2153,7 +1961,7 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>['youre eyeing', 'explicitly', 'fantastic', 'falls just', 'falls']</t>
+          <t>['youre used', 'glow', 'got lot', 'got high', 'got']</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
@@ -2233,7 +2041,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t xml:space="preserve">AG405UXC </t>
+          <t>AG405UXC</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -2243,29 +2051,13 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Gaming</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>madeup1</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>still made up 2</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>https://openai.com/index/chatgpt/</t>
-        </is>
-      </c>
+          <t>GAMING</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr">
         <is>
           <t>['good contrast ratio', 'very good colour gamut coverage up to 100 srgb after calibration', 'kvm switch 90 w pd via usbc', 'configurable per pc via usbc']</t>
@@ -2287,7 +2079,7 @@
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>['youre eyeing', 'explicitly', 'fantastic', 'falls just', 'falls']</t>
+          <t>['youre used', 'glow', 'got lot', 'got high', 'got']</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
@@ -2380,26 +2172,10 @@
           <t>B2C</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>madeup1</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>still made up 2</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>https://openai.com/index/chatgpt/</t>
-        </is>
-      </c>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr">
         <is>
           <t>['3rd generation qdoled panel', 'fast bright colourful']</t>
@@ -2421,7 +2197,7 @@
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>['youre eyeing', 'explicitly', 'fantastic', 'falls just', 'falls']</t>
+          <t>['youre used', 'glow', 'got lot', 'got high', 'got']</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
@@ -2514,26 +2290,10 @@
           <t>B2C</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>madeup1</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>still made up 2</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>https://openai.com/index/chatgpt/</t>
-        </is>
-      </c>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr">
         <is>
           <t>['3rd generation qdoled panel', 'fast bright colourful']</t>
@@ -2555,7 +2315,7 @@
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>['youre eyeing', 'explicitly', 'fantastic', 'falls just', 'falls']</t>
+          <t>['youre used', 'glow', 'got lot', 'got high', 'got']</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
@@ -2645,29 +2405,13 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Gaming</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>madeup1</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>still made up 2</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>https://openai.com/index/chatgpt/</t>
-        </is>
-      </c>
+          <t>GAMING</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr">
         <is>
           <t>['219 uwqhd resolution', 'rich colours']</t>
@@ -2689,7 +2433,7 @@
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>['youre eyeing', 'explicitly', 'fantastic', 'falls just', 'falls']</t>
+          <t>['youre used', 'glow', 'got lot', 'got high', 'got']</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
@@ -2779,29 +2523,13 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Gaming</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>madeup1</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>still made up 2</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>https://openai.com/index/chatgpt/</t>
-        </is>
-      </c>
+          <t>GAMING</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr">
         <is>
           <t>['3rd generation qdoled panel', 'still good colours and brightness', 'affordable']</t>
@@ -2823,7 +2551,7 @@
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>['youre eyeing', 'explicitly', 'fantastic', 'falls just', 'falls']</t>
+          <t>['youre used', 'glow', 'got lot', 'got high', 'got']</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
@@ -2903,7 +2631,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t xml:space="preserve">27B2U6903 </t>
+          <t>27B2U6903</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -2916,26 +2644,10 @@
           <t>B2B</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>madeup1</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>still made up 2</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>https://openai.com/index/chatgpt/</t>
-        </is>
-      </c>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr">
         <is>
           <t>['thunderbolt 4 and 25 gbit ethernet connectivity', 'from a design standpoint a breath of fresh air', 'simple front mounted osd buttons more usable than rearmounted thumbstick', 'crisp detailed display', 'great range of additional inputs', 'negates the need for a usb hub', 'compact stand', 'thunderbolt 4 and 25 gbit ethernet connectivity', 'from a design standpoint a breath of fresh air', 'simple front mounted osd buttons more usable than rearmounted thumbstick']</t>
@@ -2961,7 +2673,7 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>['philips 27b2u6903', '27b2u6903', 'philips', 'hub', 'usb']</t>
+          <t>['27b2u6903', 'philips 27b2u6903', 'usb', 'hub', 'usb hub']</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
@@ -3041,7 +2753,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t xml:space="preserve">42M2N8900 </t>
+          <t>42M2N8900</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -3054,26 +2766,10 @@
           <t>B2C</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>UK</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>madeup1</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>still made up 2</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>https://openai.com/index/chatgpt/</t>
-        </is>
-      </c>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr">
         <is>
           <t>['massive 42inch 415inch viewable 4k oled panel', '120 hz refresh rate overclockable to 138 hz', 'excellent 01 ms gtg response time', 'amd freesync support', 'two hdmi 21 ports for console gaming displayport 14 and usbc connectivity', 'usb hub with fast charging', 'kvm support', 'pictureinpicture and picturebypicture capabilities', 'great for content creation 94 adobe rgb 131 srgb 110 ntsc', 'excellent viewing angles 178° horizontal and vertical', '450 nits peak brightness', '10bit colour support', 'impressive 15 million1 contrast ratio', 'ambiglow rgb lighting system with customisation options', 'builtin 10 w speakers with dts support', 'included remote control', 'height tilt and swivel adjustments', 'good cable management', 'antiglare coating low reflection 2 haze 25', 'massive 42inch 415inch viewable 4k oled panel', '120 hz refresh rate overclockable to 138 hz', 'excellent 01 ms gtg response time', 'amd freesync support', 'two hdmi 21 ports for console gaming displayport 14 and usbc connectivity', 'usb hub with fast charging', 'kvm support', 'pictureinpicture and picturebypicture capabilities', 'great for content creation 94 adobe rgb 131 srgb 110 ntsc', 'excellent viewing angles 178° horizontal and vertical', '450 nits peak brightness', '10bit colour support', 'impressive 15 million1 contrast ratio', 'ambiglow rgb lighting system with customisation options', 'builtin 10 w speakers with dts support', 'included remote control', 'height tilt and swivel adjustments', 'good cable management', 'antiglare coating low reflection 2 haze 25']</t>
@@ -3099,7 +2795,7 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>['absolutely', 'like', 'immersive', 'display absolutely', 'screen']</t>
+          <t>['absolutely', 'immersive', 'like', 'display absolutely', 'experience']</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
@@ -3179,7 +2875,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t xml:space="preserve">AG326UD </t>
+          <t>AG326UD</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -3189,29 +2885,13 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Gaming</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>UK</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>madeup1</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>still made up 2</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>https://openai.com/index/chatgpt/</t>
-        </is>
-      </c>
+          <t>GAMING</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr">
         <is>
           <t>['32inch qd oled panel', '4k resolution 3840x2160', '165 hz refresh rate', 'extremely fast 003 ms response time', 'hdmi 21 support for console gaming at 120 hz', 'displayport 14', 'adaptivesync technology', 'low input lag', 'displayhdr true black 400 certification', 'usb hub with fast charging port', 'builtin speakers', 'rgb illumination on the back', 'excellent colour reproduction and vibrant visuals', 'perfect for both gaming and content creation', 'good for watching highresolution content', 'good for larger workspaces when creating content', 'excellent viewing angles', '32inch qd oled panel', '4k resolution 3840x2160', '165 hz refresh rate', 'extremely fast 003 ms response time', 'hdmi 21 support for console gaming at 120 hz', 'displayport 14', 'adaptivesync technology', 'low input lag', 'displayhdr true black 400 certification', 'usb hub with fast charging port', 'builtin speakers', 'rgb illumination on the back', 'excellent colour reproduction and vibrant visuals', 'perfect for both gaming and content creation', 'good for watching highresolution content', 'good for larger workspaces when creating content', 'excellent viewing angles']</t>
@@ -3237,7 +2917,7 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>['got', 'content', 'good', 'definitely', 'gaming monitor']</t>
+          <t>['got', 'content', 'definitely', 'good', 'gaming monitor']</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
@@ -3306,6 +2986,4508 @@
         </is>
       </c>
       <c r="AB21" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>AG276QZD2</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>AOC</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>GAMING</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Hungry</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Matthew Peel</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Dorka Dobos</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=ZC_mWm1v7iQ</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>['narrow bezels great asymmetrical design', 'fingerprints are not visible on the coating', 'ergonomic adjustability of the stand including pivot mode', 'rgb lights', '240 hz refresh rate via dp 14', 'builtin speakers – do not sound great but comes good in emergency', '1440p 27” sweet spot for gaming and work as well', 'qdoled panel with astounding image quality', 'excellent colour accuracy', '003 ms gtg response time', 'great successor of the ag276qzd', 'in addition to gaming it is ideal for working too', 'hdr mode', 'excellent motion blurfree gaming experience', 'gsync compatibility', 'comprehensive oled care functions', 'price', 'warranty applies for burnin as well', 'real blacks beautiful colours']</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>['terrible name', 'lack of usbc']</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>i can honestly and unequivocally say that this is the best monitor in the world … in comparison with the competitors such as the asus rog swift pg27aqdm or the msi mpg 271qrx the aoc is significantly cheaper … the ag276qzd2 is only 250k forints and i know it is also a lot of money but this is an impressive price tag for a 240 hz 1440p 27” qdoled monitor</t>
+        </is>
+      </c>
+      <c r="L22" t="n">
+        <v>0.4958333333333333</v>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>['1440p 27', 'pg27aqdm', 'pg27aqdm msi', 'qdoled monitor', '240']</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>['rgb lights', 'qdoled panel with astounding image quality', 'hdr mode', 'comprehensive oled care functions']</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>['240 hz refresh rate via dp 14', '003 ms gtg response time']</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>['240 hz refresh rate via dp 14']</t>
+        </is>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>['lack of usbc']</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>['narrow bezels great asymmetrical design', 'ergonomic adjustability of the stand including pivot mode', 'builtin speakers – do not sound great but comes good in emergency']</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>['builtin speakers – do not sound great but comes good in emergency', 'hdr mode']</t>
+        </is>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Y22" t="inlineStr">
+        <is>
+          <t>['price']</t>
+        </is>
+      </c>
+      <c r="Z22" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="AA22" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="AB22" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>AG276QZD2</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>AOC</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>GAMING</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Turkey</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>['267 qdoled panel with 2560x1440p resolution 2k', 'excellent pricetoperformance ratio most affordable in its category', 'true blacks and exceptional contrast typical of oled', '240 hz refresh rate and ultrafast 003 ms response time', 'antireflective coating', 'displayhdr true black 400 certification', 'excellent colour reproduction 138 srgb 99 dcip3 98 adobe rgb and deltae 2 for colour accuracy', '250 nits sdr brightness 450 nits hdr brightness up to 1000 nits in 3 of screen area', 'adaptive sync 48240 hz range', 'comprehensive connectivity 2x hdmi 20 2x displayport 14 2x usb 32', 'builtin speakers and headphone jack', 'quality cables included in the box', 'rgb lighting on the back light fx', 'multiple oled protection features and 3year warranty including oled panel', 'full ergonomic stand height tilt swivel pivot adjustments and vesa mount support', 'turkish language support in osd', 'gamespecific features preset modes shadow control sniper scope', 'gmenu software with firmware updates', '267 qdoled panel with 2560x1440p resolution 2k', 'excellent pricetoperformance ratio most affordable in its category', 'true blacks and exceptional contrast typical of oled', '240 hz refresh rate and ultrafast 003 ms response time', 'antireflective coating', 'displayhdr true black 400 certification', 'excellent colour reproduction 138 srgb 99 dcip3 98 adobe rgb and deltae 2 for colour accuracy', '250 nits sdr brightness 450 nits hdr brightness up to 1000 nits in 3 of screen area', 'adaptive sync 48240 hz range', 'comprehensive connectivity 2x hdmi 20 2x displayport 14 2x usb 32', 'builtin speakers and headphone jack', 'quality cables included in the box', 'rgb lighting on the back light fx', 'multiple oled protection features and 3year warranty including oled panel', 'full ergonomic stand height tilt swivel pivot adjustments and vesa mount support', 'turkish language support in osd', 'gamespecific features preset modes shadow control sniper scope', 'gmenu software with firmware updates']</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>['plastic build quality that doesnt feel premium', 'limited to 144 hz at full resolution when using hdmi', 'cable management clip on stand seems fragile and likely to break', 'external power adapter 135w is somewhat bulky', 'some minor translation errors in the software', 'plastic build quality that doesnt feel premium', 'limited to 144 hz at full resolution when using hdmi', 'cable management clip on stand seems fragile and likely to break', 'external power adapter 135w is somewhat bulky', 'some minor translation errors in the software']</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>the aoc agon pro ag276qzd2 is an attractive 27inch qdoled monitor offering 2k resolution at 240 hz with excellent colour reproduction at around 22000 try its one of the most competitively priced monitors in this category similar models cost over 30000 try with comprehensive connectivity multiple oled protection features and a 3year warranty its an ideal candidate for users looking to purchase their first oled monitor while primarily marketed for gaming with its ultrafast response time and gamespecific features its also suitable for creative work and general use with its excellent colour accuracy</t>
+        </is>
+      </c>
+      <c r="L23" t="n">
+        <v>0.4958333333333333</v>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>['try', 'excellent colour', 'oled', 'excellent', 'features']</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>['267 qdoled panel with 2560x1440p resolution 2k', 'true blacks and exceptional contrast typical of oled', 'displayhdr true black 400 certification', 'excellent colour reproduction 138 srgb 99 dcip3 98 adobe rgb and deltae 2 for colour accuracy', '250 nits sdr brightness 450 nits hdr brightness up to 1000 nits in 3 of screen area', 'rgb lighting on the back light fx', 'multiple oled protection features and 3year warranty including oled panel', '267 qdoled panel with 2560x1440p resolution 2k', 'true blacks and exceptional contrast typical of oled', 'displayhdr true black 400 certification', 'excellent colour reproduction 138 srgb 99 dcip3 98 adobe rgb and deltae 2 for colour accuracy', '250 nits sdr brightness 450 nits hdr brightness up to 1000 nits in 3 of screen area', 'rgb lighting on the back light fx', 'multiple oled protection features and 3year warranty including oled panel']</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>['limited to 144 hz at full resolution when using hdmi', 'limited to 144 hz at full resolution when using hdmi']</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>['240 hz refresh rate and ultrafast 003 ms response time', '240 hz refresh rate and ultrafast 003 ms response time']</t>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>['comprehensive connectivity 2x hdmi 20 2x displayport 14 2x usb 32', 'builtin speakers and headphone jack', 'full ergonomic stand height tilt swivel pivot adjustments and vesa mount support', 'turkish language support in osd', 'comprehensive connectivity 2x hdmi 20 2x displayport 14 2x usb 32', 'builtin speakers and headphone jack', 'full ergonomic stand height tilt swivel pivot adjustments and vesa mount support', 'turkish language support in osd']</t>
+        </is>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>['limited to 144 hz at full resolution when using hdmi', 'limited to 144 hz at full resolution when using hdmi']</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>['full ergonomic stand height tilt swivel pivot adjustments and vesa mount support', 'full ergonomic stand height tilt swivel pivot adjustments and vesa mount support']</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>['plastic build quality that doesnt feel premium', 'cable management clip on stand seems fragile and likely to break', 'plastic build quality that doesnt feel premium', 'cable management clip on stand seems fragile and likely to break']</t>
+        </is>
+      </c>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>['displayhdr true black 400 certification', '250 nits sdr brightness 450 nits hdr brightness up to 1000 nits in 3 of screen area', 'builtin speakers and headphone jack', 'turkish language support in osd', 'gmenu software with firmware updates', 'displayhdr true black 400 certification', '250 nits sdr brightness 450 nits hdr brightness up to 1000 nits in 3 of screen area', 'builtin speakers and headphone jack', 'turkish language support in osd', 'gmenu software with firmware updates']</t>
+        </is>
+      </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Y23" t="inlineStr">
+        <is>
+          <t>['excellent pricetoperformance ratio most affordable in its category', 'excellent pricetoperformance ratio most affordable in its category']</t>
+        </is>
+      </c>
+      <c r="Z23" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="AA23" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="AB23" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>AG276QZD2</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>AOC</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>GAMING</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Hungry</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Devon Tech</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Dorka Dobos</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=oejElmMX-G0&amp;t</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>['narrow bezels', 'rgb lights on the back', 'ergonomic adjustability of the stand including pivot mode', '240 hz refresh rate', '003 ms gtg response time', 'gaming presets', 'oled panel is adding a lot to the gaming experience', 'oled care functions', 'infinite blacks deep contrasts vivid colours of the oled panel new level of visual experience']</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>['vesa mount is only available through a separate adapter', 'quality of the speakers is disappointing', 'design of the stand base']</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>['youre used', 'glow', 'got lot', 'got high', 'got']</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>['rgb lights on the back', 'oled panel is adding a lot to the gaming experience', 'oled care functions', 'infinite blacks deep contrasts vivid colours of the oled panel new level of visual experience']</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>['240 hz refresh rate', '003 ms gtg response time']</t>
+        </is>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>['ergonomic adjustability of the stand including pivot mode']</t>
+        </is>
+      </c>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>['design of the stand base']</t>
+        </is>
+      </c>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t>['quality of the speakers is disappointing']</t>
+        </is>
+      </c>
+      <c r="Y24" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Z24" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="AA24" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="AB24" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>AG276QZD2</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>AOC</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>GAMING</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>OCinside.de</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Erdem Mansur</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>https://www.ocinside.de/test/aoc_ag276qzd2_d/</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>['unobtrusive design', 'good ergonomics', 'gmenu software included for configuration of monitor', 'solid pixel density', 'authentic and nuanced colours', 'high refresh rate of 240 hz and arrowfast response time of 003 ms', 'very homogeneous brightness', 'unobtrusive design', 'good ergonomics', 'gmenu software included for configuration of monitor', 'solid pixel density', 'authentic and nuanced colours', 'high refresh rate of 240 hz and arrowfast response time of 003 ms', 'very homogeneous brightness']</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>['display has relatively strong mirror effect', 'display has relatively strong mirror effect']</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>even on paper the aoc agon pro ag276qzd2 is hard to beat in the category up to 27″ in fact the subjective image impression is just as flawless as hoped and the colors of virtual worlds are very fullbodied yet neutral in terms of brightness and especially its homogeneity the model stands out exceptionally a tradeoff between ips glow or viewing angledependent tn panels is simply not necessary here and the qdoled panel type used by aoc appears very mature in all conceivable criteria even the standard settings are convincing should this not be the case gmenu is used for modifications the pixel density is perhaps the only rather common feature but it is in reasonable proportion to the screen size installation is very familiar and quick as it corresponds to the procedure for many other monitors similarly the angular stand is perfectly dimensioned and very solid the advertised spacesaving design therefore does not entail any noticeable disadvantages in terms of stability the question is whether the high power consumption of the targeted 29 watts and the price could deter the target group this is rather unlikely as esports enthusiasts do not want to make their skills dependent on limiting technology and instead want to win high prize money at the same time the native wqhd resolution will always go hand in hand with a powerful graphics card in this context the agon pro is absolutely right to buy qualities such as qdoled through a few necessities the only real disadvantage is the clear reflection of the display in view of this minimalist criticism however the agon pro can actually be recommended almost in its entirety a good monitor outlasts one or two pcs and is therefore worth a higher investment</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
+        <v>0.1932374338624338</v>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>['agon pro', 'agon', 'pro', 'hand', 'used']</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>['very homogeneous brightness', 'very homogeneous brightness']</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>['high refresh rate of 240 hz and arrowfast response time of 003 ms', 'high refresh rate of 240 hz and arrowfast response time of 003 ms']</t>
+        </is>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>['unobtrusive design', 'good ergonomics', 'unobtrusive design', 'good ergonomics']</t>
+        </is>
+      </c>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="W25" t="inlineStr">
+        <is>
+          <t>['gmenu software included for configuration of monitor', 'gmenu software included for configuration of monitor']</t>
+        </is>
+      </c>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Y25" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Z25" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="AA25" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="AB25" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>42M2N8900</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Philips</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>GAMING</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>RedGamingTech</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Erdem Mansur</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=-EGvuqH9y8E</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>['massive 42inch 415inch viewable 4k oled panel', '120 hz refresh rate overclockable to 138 hz', 'excellent 01 ms gtg response time', 'amd freesync support', 'two hdmi 21 ports for console gaming displayport 14 and usbc connectivity', 'usb hub with fast charging', 'kvm support', 'pictureinpicture and picturebypicture capabilities', 'great for content creation 94 adobe rgb 131 srgb 110 ntsc', 'excellent viewing angles 178° horizontal and vertical', '450 nits peak brightness', '10bit colour support', 'impressive 15 million1 contrast ratio', 'ambiglow rgb lighting system with customisation options', 'builtin 10 w speakers with dts support', 'included remote control', 'height tilt and swivel adjustments', 'good cable management', 'antiglare coating low reflection 2 haze 25', 'massive 42inch 415inch viewable 4k oled panel', '120 hz refresh rate overclockable to 138 hz', 'excellent 01 ms gtg response time', 'amd freesync support', 'two hdmi 21 ports for console gaming displayport 14 and usbc connectivity', 'usb hub with fast charging', 'kvm support', 'pictureinpicture and picturebypicture capabilities', 'great for content creation 94 adobe rgb 131 srgb 110 ntsc', 'excellent viewing angles 178° horizontal and vertical', '450 nits peak brightness', '10bit colour support', 'impressive 15 million1 contrast ratio', 'ambiglow rgb lighting system with customisation options', 'builtin 10 w speakers with dts support', 'included remote control', 'height tilt and swivel adjustments', 'good cable management', 'antiglare coating low reflection 2 haze 25']</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>['no displayport 21 support – but also not supported by many gpus or consoles anyway', 'not as high refresh rate as some competitive gaming monitors', 'builtin speakers are just reasonable quality', '450 nits brightness not as high as some premium displays', 'size may be too large for competitive gaming', 'large footprint requires significant desk space', 'rear joystick control can be difficult to reach given the size', 'no displayport 21 support – but also not supported by many gpus or consoles anyway', 'not as high refresh rate as some competitive gaming monitors', 'builtin speakers are just reasonable quality', '450 nits brightness not as high as some premium displays', 'size may be too large for competitive gaming', 'large footprint requires significant desk space', 'rear joystick control can be difficult to reach given the size']</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>the philips 42m2n8900 is a fantastic screen for gamers who want a more immersive experience and also perhaps are dabbling in content creation and professional usage i personally really like this display its been absolutely amazing for me ive really enjoyed it i want that big immersive display that absolutely drowns out my peripheral vision and i have to tell you guys playing a single player firstperson shooter with something like this or silent hill oh my goodness it is absolutely cool this panel is absolutely huge for a pc screen i find panels like this absolutely perfect for immersive gaming experience</t>
+        </is>
+      </c>
+      <c r="L26" t="n">
+        <v>0.3214285714285715</v>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>['absolutely', 'immersive', 'like', 'display absolutely', 'experience']</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>['massive 42inch 415inch viewable 4k oled panel', 'great for content creation 94 adobe rgb 131 srgb 110 ntsc', '450 nits peak brightness', 'impressive 15 million1 contrast ratio', 'ambiglow rgb lighting system with customisation options', 'massive 42inch 415inch viewable 4k oled panel', 'great for content creation 94 adobe rgb 131 srgb 110 ntsc', '450 nits peak brightness', 'impressive 15 million1 contrast ratio', 'ambiglow rgb lighting system with customisation options']</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>['450 nits brightness not as high as some premium displays', '450 nits brightness not as high as some premium displays']</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>['120 hz refresh rate overclockable to 138 hz', 'excellent 01 ms gtg response time', '120 hz refresh rate overclockable to 138 hz', 'excellent 01 ms gtg response time']</t>
+        </is>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>['not as high refresh rate as some competitive gaming monitors', 'not as high refresh rate as some competitive gaming monitors']</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>['amd freesync support', 'two hdmi 21 ports for console gaming displayport 14 and usbc connectivity', 'usb hub with fast charging', 'kvm support', '10bit colour support', 'builtin 10 w speakers with dts support', 'amd freesync support', 'two hdmi 21 ports for console gaming displayport 14 and usbc connectivity', 'usb hub with fast charging', 'kvm support', '10bit colour support', 'builtin 10 w speakers with dts support']</t>
+        </is>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>['no displayport 21 support – but also not supported by many gpus or consoles anyway', 'no displayport 21 support – but also not supported by many gpus or consoles anyway']</t>
+        </is>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>['height tilt and swivel adjustments', 'height tilt and swivel adjustments']</t>
+        </is>
+      </c>
+      <c r="V26" t="inlineStr">
+        <is>
+          <t>['size may be too large for competitive gaming', 'rear joystick control can be difficult to reach given the size', 'size may be too large for competitive gaming', 'rear joystick control can be difficult to reach given the size']</t>
+        </is>
+      </c>
+      <c r="W26" t="inlineStr">
+        <is>
+          <t>['amd freesync support', 'builtin 10 w speakers with dts support', 'amd freesync support', 'builtin 10 w speakers with dts support']</t>
+        </is>
+      </c>
+      <c r="X26" t="inlineStr">
+        <is>
+          <t>['builtin speakers are just reasonable quality', 'builtin speakers are just reasonable quality']</t>
+        </is>
+      </c>
+      <c r="Y26" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Z26" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="AA26" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="AB26" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>AG326UD</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>AOC</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>GAMING</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Welshytech</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Erdem Mansur</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=0FK0zFpPJUI</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>['32inch qd oled panel', '4k resolution 3840x2160', '165 hz refresh rate', 'extremely fast 003 ms response time', 'hdmi 21 support for console gaming at 120 hz', 'displayport 14', 'adaptivesync technology', 'low input lag', 'displayhdr true black 400 certification', 'usb hub with fast charging port', 'builtin speakers', 'rgb illumination on the back', 'excellent colour reproduction and vibrant visuals', 'perfect for both gaming and content creation', 'good for watching highresolution content', 'good for larger workspaces when creating content', 'excellent viewing angles', '32inch qd oled panel', '4k resolution 3840x2160', '165 hz refresh rate', 'extremely fast 003 ms response time', 'hdmi 21 support for console gaming at 120 hz', 'displayport 14', 'adaptivesync technology', 'low input lag', 'displayhdr true black 400 certification', 'usb hub with fast charging port', 'builtin speakers', 'rgb illumination on the back', 'excellent colour reproduction and vibrant visuals', 'perfect for both gaming and content creation', 'good for watching highresolution content', 'good for larger workspaces when creating content', 'excellent viewing angles']</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>['glass panel may cause glare', 'colours might appear oversaturated especially for those with colour blindness', 'user interface could be larger', 'speakers arent the best quality', 'requires pixel caremaintenance common to all oleds', 'price might be higher than comparable lcd monitors', 'glass panel may cause glare', 'colours might appear oversaturated especially for those with colour blindness', 'user interface could be larger', 'speakers arent the best quality', 'requires pixel caremaintenance common to all oleds', 'price might be higher than comparable lcd monitors']</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>its a gaming monitor at heart its definitely got a lot of different functions especially the adaptivesync its got the overall really low response time its got the high 165 hz its qd oled … if youre a gamer but you also dabble in like content creation or you like watching very high resolution content then its definitely a good option for you its a gaming monitor its not the cheapest one but what i will say is the panel on this is very very good qdoled its a very good panel watching content on this is truly amazing and also the fact that its 32inch as well and below £1000 its fantastic in my eyes</t>
+        </is>
+      </c>
+      <c r="L27" t="n">
+        <v>0.324</v>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>['got', 'content', 'definitely', 'good', 'gaming monitor']</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>['32inch qd oled panel', '4k resolution 3840x2160', 'displayhdr true black 400 certification', 'rgb illumination on the back', 'good for watching highresolution content', '32inch qd oled panel', '4k resolution 3840x2160', 'displayhdr true black 400 certification', 'rgb illumination on the back', 'good for watching highresolution content']</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>['glass panel may cause glare', 'requires pixel caremaintenance common to all oleds', 'glass panel may cause glare', 'requires pixel caremaintenance common to all oleds']</t>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>['165 hz refresh rate', 'extremely fast 003 ms response time', 'low input lag', '165 hz refresh rate', 'extremely fast 003 ms response time', 'low input lag']</t>
+        </is>
+      </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>['hdmi 21 support for console gaming at 120 hz', 'displayport 14', 'low input lag', 'usb hub with fast charging port', 'hdmi 21 support for console gaming at 120 hz', 'displayport 14', 'low input lag', 'usb hub with fast charging port']</t>
+        </is>
+      </c>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="W27" t="inlineStr">
+        <is>
+          <t>['displayhdr true black 400 certification', 'builtin speakers', 'displayhdr true black 400 certification', 'builtin speakers']</t>
+        </is>
+      </c>
+      <c r="X27" t="inlineStr">
+        <is>
+          <t>['speakers arent the best quality', 'speakers arent the best quality']</t>
+        </is>
+      </c>
+      <c r="Y27" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Z27" t="inlineStr">
+        <is>
+          <t>['price might be higher than comparable lcd monitors', 'price might be higher than comparable lcd monitors']</t>
+        </is>
+      </c>
+      <c r="AA27" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="AB27" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>24G42E</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>AOC</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>GAMING</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Hungry</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>gamer.hu</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Dorka Dobos</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>https://gamer.hu/2025/04/11/aoc-24g42e-gamer-monitor-teszt-180-hz-et-mindenkinek/</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>['cables are included in the box', 'fhd fits to the 238” size', 'gmenu application', 'excellent motion blurfree gaming experience', 'gsync compatible', 'hight 180 hz refresh rate', 'great ips panel', 'very easy to assemble', 'hdmi and dp inputs', 'headphone output', 'all the goodies of the world packed in a clear menu', 'dedicated buttons no need to control the menu with a joystick', 'vesa compatibility', 'cables are included in the box', 'fhd fits to the 238” size', 'gmenu application', 'excellent motion blurfree gaming experience', 'gsync compatible']</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>['usb hub could be nice but its rare to find it in this price category', 'pivot mode and height adjustment are not available with the factory stand but thats just nitpicking']</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>the aoc 24g42e gamer monitor has been available for under 50 thousand forints in recent weeks but you can almost always find a bargain for under 60 thousand a few years ago we could only get a 60 hz slow tn panel monitor off the shelves in exchange the monitor could be the perfect entry into the high refresh rate display category without having to spend a serious amount of money theres also no need to worry if you dont get 180 fps in a particular game as adaptivesync solutions handle this perfectly the ips panel has done its job well with 300 cdm² brightness even in bright rooms while the inputs are not picky either its hard to find a better deal these days if youre eyeing a 1080p monitor with high refresh rates</t>
+        </is>
+      </c>
+      <c r="L28" t="n">
+        <v>0.1707777777777778</v>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>['high refresh', '60', 'thousand', 'refresh', 'high']</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>['great ips panel']</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>['hight 180 hz refresh rate']</t>
+        </is>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>['hdmi and dp inputs', 'headphone output']</t>
+        </is>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>['usb hub could be nice but its rare to find it in this price category']</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>['fhd fits to the 238” size', 'fhd fits to the 238” size']</t>
+        </is>
+      </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>['pivot mode and height adjustment are not available with the factory stand but thats just nitpicking']</t>
+        </is>
+      </c>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>['gmenu application', 'all the goodies of the world packed in a clear menu', 'dedicated buttons no need to control the menu with a joystick', 'gmenu application']</t>
+        </is>
+      </c>
+      <c r="X28" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Y28" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Z28" t="inlineStr">
+        <is>
+          <t>['usb hub could be nice but its rare to find it in this price category']</t>
+        </is>
+      </c>
+      <c r="AA28" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="AB28" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>27B2G5500</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Philips </t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>B2B</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Latvia</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Kursors</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Dorka Dobos</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>https://kursors.lv/2025/03/25/philips-27b2g5500-1440p-100-hz-biznesa-klases-monitora-apskats/</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>['100 hz refresh rate', '2560 x 1440 quad hd 27” size 109 ppi', 'ips panel with 167m colours', 'lightsensor and powersensor for energy saving', 'headphone holder', 'rich connectivity including hdmi 20 x 2 displayport 14 x 1', 'builtin power supply', 'compact size and beautiful design of the monitor stand', 'osd interface is very userfriendly and simple', 'good price performance']</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>['quality of builtin 3 w x 2 speakers is not ideal', 'promised srgb 108 and ntsc 94 didn’t show in test as it reached srgb 100 and ntsc 76 measured brightness didn’t reach 300 cdm² but 265 cdm²', 'the same for contrast as it reached 13201 instead of 15001', 'for few of the colours accuracy in the measurement was not good']</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>the philips 27b2g5500 is a solid choice for an office monitor especially thanks to its energysaving features and 1440p resolution which has become a standard in modern work environments it’s wellsuited for office tasks offering a smooth experience with its 100 hz refresh rate while its colour accuracy and viewing angles arent perfect these issues are not significant in a welllit office setting the monitor also offers good value for money however for home use where watching movies or playing games might be a priority the muted colours and weak builtin speakers could slightly reduce the overall experience overall it’s a great option for office work but other monitors might be worth considering for home use</t>
+        </is>
+      </c>
+      <c r="L29" t="n">
+        <v>0.1903645833333333</v>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>['office', 'home use', 'overall', 'home', 'experience']</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>['ips panel with 167m colours']</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>['promised srgb 108 and ntsc 94 didn’t show in test as it reached srgb 100 and ntsc 76 measured brightness didn’t reach 300 cdm² but 265 cdm²', 'the same for contrast as it reached 13201 instead of 15001']</t>
+        </is>
+      </c>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>['100 hz refresh rate']</t>
+        </is>
+      </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>['headphone holder', 'rich connectivity including hdmi 20 x 2 displayport 14 x 1']</t>
+        </is>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>['2560 x 1440 quad hd 27” size 109 ppi', 'compact size and beautiful design of the monitor stand']</t>
+        </is>
+      </c>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>['osd interface is very userfriendly and simple']</t>
+        </is>
+      </c>
+      <c r="X29" t="inlineStr">
+        <is>
+          <t>['quality of builtin 3 w x 2 speakers is not ideal']</t>
+        </is>
+      </c>
+      <c r="Y29" t="inlineStr">
+        <is>
+          <t>['good price performance']</t>
+        </is>
+      </c>
+      <c r="Z29" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="AA29" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="AB29" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>34B2U5600C</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Philips</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>B2B</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Latvia</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Kursors</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Dorka Dobos</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>https://kursors.lv/2025/03/26/philips-34b2u5600c-liekta-4k-ofisa-monitora-ar-usb-c-un-kvm-apskats/</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>['120 hz refresh rate', '3440 x 1440 wqhd resolution', '34’’ size curved display', 'usbc rj45 connectivity', 'hdmi 20 x 2 displayport 14 x 1', 'smart kvm switch', 'great for home office and gaming as well', 'stable and welldesigned monitor stand also provides good cable management', 'headphone holder', 'built in power supply', 'powersensor and lightsensor for energy saving', 'excellent colour precision in the tests']</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>['brightness could be higher in the test it reached 243 cdm² instead of 300 cdm²', 'contrast reached 24001 instead of 40001 but the reason could be the curve that can affect the measuring equipment precision']</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>’the philips 34b2u5600c leaves a strong and positive impression especially for a curved monitor aimed at office work it proves that excellent performance doesn’t have to come with a big price tag offering a great mix of practicality and visual quality it delivers professional colour precision which is rare for a 120 hz curved display at this price point while philips doesn’t explicitly market it as a gaming monitor the specs suggest it’s more than capable of handling casual gaming and multimedia use making it a truly versatile option it also shines in terms of userfriendliness helping reduce cable clutter and streamlining the workspace — perfect for a modern home office setup all in all the 34b2u5600c is a reliable wellbalanced monitor that comfortably fits both productivity and entertainment needs</t>
+        </is>
+      </c>
+      <c r="L30" t="n">
+        <v>0.3100378787878789</v>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>['34b2u5600c', 'doesn', 'curved', 'office', 'price']</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>['3440 x 1440 wqhd resolution']</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>['brightness could be higher in the test it reached 243 cdm² instead of 300 cdm²', 'contrast reached 24001 instead of 40001 but the reason could be the curve that can affect the measuring equipment precision']</t>
+        </is>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>['120 hz refresh rate']</t>
+        </is>
+      </c>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>['usbc rj45 connectivity', 'hdmi 20 x 2 displayport 14 x 1', 'smart kvm switch', 'headphone holder']</t>
+        </is>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>['34’’ size curved display', 'stable and welldesigned monitor stand also provides good cable management']</t>
+        </is>
+      </c>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="X30" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Y30" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Z30" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="AA30" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="AB30" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>27B1U5601H</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Philips</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>B2B</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Lithuania</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Technologijos.lt</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Dorka Dobos</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>http://www.technologijos.lt/rinka/apzvalgos/S-200229</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>['solid design that fits into any work space', 'high quality sturdy and easily adjustable stand', 'great ips display with a refresh rate of 75 hz', 'multiple convenient ways to connect a computer', 'integrated usb hub for peripherals', 'usbc with power delivery', 'rj45 port', 'webcam noise canceling mic and speakers for video calls']</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>['markings on control buttons may be hard to see', 'cable management could be better', 'no way to quickly adjust brightness on the monitor without going through menus']</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>a good tool is unobtrusive and allows you to focus on your work the philips 27b1u5601h monitor can be such a tool in your home office</t>
+        </is>
+      </c>
+      <c r="L31" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>['tool', 'tool home', 'work philips', 'unobtrusive', 'monitor tool']</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>['no way to quickly adjust brightness on the monitor without going through menus']</t>
+        </is>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>['great ips display with a refresh rate of 75 hz']</t>
+        </is>
+      </c>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>['integrated usb hub for peripherals', 'usbc with power delivery', 'rj45 port']</t>
+        </is>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>['solid design that fits into any work space', 'high quality sturdy and easily adjustable stand']</t>
+        </is>
+      </c>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>['webcam noise canceling mic and speakers for video calls']</t>
+        </is>
+      </c>
+      <c r="X31" t="inlineStr">
+        <is>
+          <t>['no way to quickly adjust brightness on the monitor without going through menus']</t>
+        </is>
+      </c>
+      <c r="Y31" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Z31" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="AA31" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="AB31" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Q24G2A</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>AOC</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>GAMING</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">HardwareDealz </t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Erdem Mansur</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>https://www.hardwaredealz.com/bester-monitor-die-besten-gaming-monitore</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>['24 wqhd ips panel', '165 hz refresh rate', 'full srgb colour space coverage 989', 'freesync premium gsync compatible', 'flickerfree low blue light technologies', 'ergonomic design with slim bezels', '24 wqhd ips panel', '165 hz refresh rate', 'full srgb colour space coverage 989', 'freesync premium gsync compatible', 'flickerfree low blue light technologies', 'ergonomic design with slim bezels']</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>['compromise in screen diagonal – although this results in a higher pixel density', 'full 165 hz only available via displayport 12 – be mindful of which port is used', 'compromise in screen diagonal – although this results in a higher pixel density', 'full 165 hz only available via displayport 12 – be mindful of which port is used']</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>we give it an unreserved buy recommendation you will hardly find a better qhd monitor for this price”</t>
+        </is>
+      </c>
+      <c r="L32" t="n">
+        <v>0.1041666666666667</v>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>['better qhd', 'monitor price', 'qhd monitor', 'hardly', 'hardly better']</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>['24 wqhd ips panel', 'full srgb colour space coverage 989', '24 wqhd ips panel', 'full srgb colour space coverage 989']</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>['165 hz refresh rate', '165 hz refresh rate']</t>
+        </is>
+      </c>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>['full 165 hz only available via displayport 12 – be mindful of which port is used', 'full 165 hz only available via displayport 12 – be mindful of which port is used']</t>
+        </is>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>['ergonomic design with slim bezels', 'ergonomic design with slim bezels']</t>
+        </is>
+      </c>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>['freesync premium gsync compatible', 'freesync premium gsync compatible']</t>
+        </is>
+      </c>
+      <c r="X32" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Y32" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Z32" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="AA32" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="AB32" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Q27G3XMN</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>AOC</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>GAMING</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">HardwareDealz </t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Erdem Mansur</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>https://www.hardwaredealz.com/bester-monitor-die-besten-gaming-monitore</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>['27 wqhd va panel', 'mini led 336 local dimming zones', '985 dcip3 full srgb colour coverage', '180 hz refresh rate overclocked', 'amd freesync premium pro', 'low input lag and strong contrast', '27 wqhd va panel', 'mini led 336 local dimming zones', '985 dcip3 full srgb colour coverage', '180 hz refresh rate overclocked', 'amd freesync premium pro', 'low input lag and strong contrast']</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>the combination of latency size resolution colour coverage and contrast makes this monitor unbeatable in its price range</t>
+        </is>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>['coverage', 'unbeatable price', 'latency size', 'coverage contrast', 'size resolution']</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>['27 wqhd va panel', '985 dcip3 full srgb colour coverage', 'low input lag and strong contrast', '27 wqhd va panel', '985 dcip3 full srgb colour coverage', 'low input lag and strong contrast']</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>['180 hz refresh rate overclocked', 'low input lag and strong contrast', '180 hz refresh rate overclocked', 'low input lag and strong contrast']</t>
+        </is>
+      </c>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>['low input lag and strong contrast', 'low input lag and strong contrast']</t>
+        </is>
+      </c>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>['amd freesync premium pro', 'amd freesync premium pro']</t>
+        </is>
+      </c>
+      <c r="X33" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Y33" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Z33" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="AA33" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="AB33" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>AG276QZD</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>AOC</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>GAMING</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">HardwareDealz </t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Erdem Mansur</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>https://www.hardwaredealz.com/bester-monitor-die-besten-gaming-monitore</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>['265 wqhd oled panel with mla micro lens array', '240 hz refresh rate', 'nearly 100 dcip3 and true 10bit colour depth', 'outstanding results in colour accuracy gamma and white point when limited to srgb – this model performs exceptionally well in these areas', 'amd freesync premium gsync compatible', 'excellent contrast and ultrafast response times', '2x displayport 14 2x hdmi 20', 'full ergonomic adjustability', '265 wqhd oled panel with mla micro lens array', '240 hz refresh rate', 'nearly 100 dcip3 and true 10bit colour depth', 'outstanding results in colour accuracy gamma and white point when limited to srgb – this model performs exceptionally well in these areas', 'amd freesync premium gsync compatible', 'excellent contrast and ultrafast response times', '2x displayport 14 2x hdmi 20', 'full ergonomic adjustability']</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>in our opinion this monitor currently offers the best priceperformance ratio and a great entry into oled panels</t>
+        </is>
+      </c>
+      <c r="L34" t="n">
+        <v>0.6333333333333334</v>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>['opinion monitor', 'oled panels', 'priceperformance ratio', 'entry oled', 'great entry']</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>['265 wqhd oled panel with mla micro lens array', 'outstanding results in colour accuracy gamma and white point when limited to srgb – this model performs exceptionally well in these areas', 'excellent contrast and ultrafast response times', '265 wqhd oled panel with mla micro lens array', 'outstanding results in colour accuracy gamma and white point when limited to srgb – this model performs exceptionally well in these areas', 'excellent contrast and ultrafast response times']</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>['240 hz refresh rate', 'excellent contrast and ultrafast response times', '240 hz refresh rate', 'excellent contrast and ultrafast response times']</t>
+        </is>
+      </c>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>['2x displayport 14 2x hdmi 20', '2x displayport 14 2x hdmi 20']</t>
+        </is>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>['nearly 100 dcip3 and true 10bit colour depth', 'outstanding results in colour accuracy gamma and white point when limited to srgb – this model performs exceptionally well in these areas', 'full ergonomic adjustability', 'nearly 100 dcip3 and true 10bit colour depth', 'outstanding results in colour accuracy gamma and white point when limited to srgb – this model performs exceptionally well in these areas', 'full ergonomic adjustability']</t>
+        </is>
+      </c>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>['amd freesync premium gsync compatible', 'amd freesync premium gsync compatible']</t>
+        </is>
+      </c>
+      <c r="X34" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Y34" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Z34" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="AA34" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="AB34" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>34B2U6603CH</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Philips</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>B2B</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Konsumer</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Dorka Dobos</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=lUPVGoTp8wU</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>['120 hz refresh rate and 34’’ size', 'thunderbolt 4 port connectivity', 'va lcd panel type', 'vesacertified displayhdr 400', 'curved display', 'outstanding connectivity options including hdmi 20 x 2 displayport 14 x 1 thunderbolt 4 x 1', 'popup camera with windows hello support', 'builtin speakers', '180 degree swivel', '4 ms reaction time', 'noise cancelling microphone', 'busylight feature']</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>['built in 5 w x 2 speakers are good for small tasks but not movies', '450 nits sdr brightness not the best but good enough for office and home office use', 'average colour accuracy']</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>if youre used to working with two screens or pairing a monitor with a laptop in your home office the philips 34b2u6603ch offers an excellent single screen alternative its ultrawide curved design provides ample workspace while maintaining consistent colour and contrast from all viewing angles the video quality is sharp and vibrant making it not only ideal for office tasks and video editing but also more than capable of handling occasional gaming one of the monitors standout features is its exceptional connectivity options with multiple ports for seamless integration into any setup the 34 size hits the sweet spot for productivity and at its price point it delivers great value this is a reliable highperforming monitor that suits professionals who want the benefits of dual screens without the clutter if youre in the market for a spacious and featurerich display the 34b2u6603ch is a safe buy you won’t regret it</t>
+        </is>
+      </c>
+      <c r="L35" t="n">
+        <v>0.3139355742296919</v>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>['34b2u6603ch', 'screens', 'video', 'youre', 'office']</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>['va lcd panel type', 'vesacertified displayhdr 400']</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>['450 nits sdr brightness not the best but good enough for office and home office use']</t>
+        </is>
+      </c>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>['120 hz refresh rate and 34’’ size']</t>
+        </is>
+      </c>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>['thunderbolt 4 port connectivity', 'outstanding connectivity options including hdmi 20 x 2 displayport 14 x 1 thunderbolt 4 x 1', 'popup camera with windows hello support']</t>
+        </is>
+      </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>['120 hz refresh rate and 34’’ size', 'outstanding connectivity options including hdmi 20 x 2 displayport 14 x 1 thunderbolt 4 x 1']</t>
+        </is>
+      </c>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>['vesacertified displayhdr 400', 'popup camera with windows hello support', 'builtin speakers', 'noise cancelling microphone']</t>
+        </is>
+      </c>
+      <c r="X35" t="inlineStr">
+        <is>
+          <t>['built in 5 w x 2 speakers are good for small tasks but not movies']</t>
+        </is>
+      </c>
+      <c r="Y35" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Z35" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="AA35" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="AB35" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>CQ32G4VE</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>AOC</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>GAMING</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>PCMonitors.info</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Dorka Dobos</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=YVCzFnXlCEE</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>['moderate curve of 1500r – feels quite natural gives a little extra feeling of depth and immersion while playing games and watching movies', '315” size qhd provides decent text clarity', '180 hz refresh rate via dp 14', 'vrr also gsync compatible', 'offers good glare handling', '100 x 100 vesa mounting possible', 'respectable srgb colour accuracy with an average deltae of 122', 'generous brightness adjustment range between 39 and 398 nits', 'exceptional va contrast performance measured contrast ratio of 40751', 'overall pretty vibrant colour experience', 'decent viewing angles for a va panel', 'very low input lag of 198 ms', 'mbr setting is very useful significantly reduces bluer and improves clarity although it is only available if adaptivesync is disabled in this case you can use “mbr sync” setting which is not recommended', 'price performance']</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>['using hdmi you are limited to144 hz and you can’t use gsync compatible', 'there is no independent sharpness control in the osd – but you can use one of the hdr modes for oversharping eg hdr picture', 'restricted scaling opportunities you can’t access the image ratio setting using the native resolution or if adaptivesync or low input lag is enabled', 'only tilt', 'text representation is a bit soft', 'some clouding at the top and bottom edges of the screen', 'some colour inconsistencies', 'low response time in “fastest” setting comes with significant overshoot']</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>in terms of its performance the usual va strengths when it came to contrast bit of a va glow bit of clouding at the top and bottom of the screen as well but the overall contrast experience was on the stronger side for an lcd the colour performance was also quite good for the panel type … and i also think the resolution and the overall pixel density is one which many people get on quite well it is quite a nice combination is you want an immersive screen and you are not interested in 4k because of your budget because of your systems performance or simply because of your own preferences … with this price in mind i think you do get a lot of monitor for your money i think it is a nice monitor to use for a range of different applications whether it’s gaming watching some video content or just on the desktop and i think aoc has put the panel it uses to good use</t>
+        </is>
+      </c>
+      <c r="L36" t="n">
+        <v>0.2942307692307692</v>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>['think', 'quite', 'performance', 'bit', 'va']</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>['respectable srgb colour accuracy with an average deltae of 122', 'generous brightness adjustment range between 39 and 398 nits', 'exceptional va contrast performance measured contrast ratio of 40751', 'decent viewing angles for a va panel']</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>['there is no independent sharpness control in the osd – but you can use one of the hdr modes for oversharping eg hdr picture', 'restricted scaling opportunities you can’t access the image ratio setting using the native resolution or if adaptivesync or low input lag is enabled']</t>
+        </is>
+      </c>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>['180 hz refresh rate via dp 14', 'very low input lag of 198 ms']</t>
+        </is>
+      </c>
+      <c r="R36" t="inlineStr">
+        <is>
+          <t>['restricted scaling opportunities you can’t access the image ratio setting using the native resolution or if adaptivesync or low input lag is enabled', 'low response time in “fastest” setting comes with significant overshoot']</t>
+        </is>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>['180 hz refresh rate via dp 14', 'very low input lag of 198 ms']</t>
+        </is>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>['using hdmi you are limited to144 hz and you can’t use gsync compatible', 'restricted scaling opportunities you can’t access the image ratio setting using the native resolution or if adaptivesync or low input lag is enabled']</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>['moderate curve of 1500r – feels quite natural gives a little extra feeling of depth and immersion while playing games and watching movies', '315” size qhd provides decent text clarity']</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="X36" t="inlineStr">
+        <is>
+          <t>['there is no independent sharpness control in the osd – but you can use one of the hdr modes for oversharping eg hdr picture']</t>
+        </is>
+      </c>
+      <c r="Y36" t="inlineStr">
+        <is>
+          <t>['price performance']</t>
+        </is>
+      </c>
+      <c r="Z36" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="AA36" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="AB36" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>24G42E</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>AOC</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>GAMING</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Hungary</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Origo Techbázis</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Dorka Dobos</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>https://www.origo.hu/techbazis/2025/04/gamer-monitor-megfizetheto-aoc-24g42e</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>['180 hz refresh rate', 'gsync compatibility', 'low input lag', 'fhd is enough for the 24” size', 'excellent colour richness and accuracy at the right settings', 'gmenu is a great software solution for settings', 'affordable price', 'suitable for general everyday and office use as well in addition to gaming']</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>['average contrast and viewing angles', 'osd navigation with the buttons takes time to get used to', 'limited adjustability']</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>all in all we were very satisfied with it because for the price the knowledge is outstanding its a great buy for someone who doesnt want to or cant spend a lot on a monitor theyll use for gaming</t>
+        </is>
+      </c>
+      <c r="L37" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>['satisfied price', 'doesnt want', 'theyll', 'great buy', 'use gaming']</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>['average contrast and viewing angles']</t>
+        </is>
+      </c>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>['180 hz refresh rate', 'low input lag']</t>
+        </is>
+      </c>
+      <c r="R37" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>['low input lag']</t>
+        </is>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>['fhd is enough for the 24” size']</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>['gmenu is a great software solution for settings']</t>
+        </is>
+      </c>
+      <c r="X37" t="inlineStr">
+        <is>
+          <t>['osd navigation with the buttons takes time to get used to']</t>
+        </is>
+      </c>
+      <c r="Y37" t="inlineStr">
+        <is>
+          <t>['affordable price']</t>
+        </is>
+      </c>
+      <c r="Z37" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="AA37" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="AB37" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>U27B3CF</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>AOC</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>GAMING</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Ricky’s TechTalk</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Dorka Dobos</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=oqzb1USx7uQ</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>['100 x 100 vesa mount', 'kensington lock', 'rich connectivity ability to connect multiple devices thanks to 2 x hdmi 20 1 x usbc 32 with 65w pd usb 32 gen 1 with fast charging headphone output', 'tilt and height adjustment', 'great colour coverage ideal for photo and video editing', '178178 viewing angles of the 4k ips panel', 'lowblue mode flicker free technology', '4 ms gtg resposnse time makes it suitable for gaming as well', 'frameless design', 'macbook ps5 xbox compatibility', 'price tag amazing for the price point']</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>['lack of cable management', 'screwdriver is needed for the setup', 'joystick would be better for osd', 'kvm switch would be nice but at the price point it’s understandably missing']</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>after using this monitor for several months i believe it’s suited for those that are running a small business those who prioritise productivity over gaming or those looking for a monitor that is versatile and can connect multiple devices</t>
+        </is>
+      </c>
+      <c r="L38" t="n">
+        <v>-0.08333333333333333</v>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>['small business', 'versatile connect', 'prioritise productivity', 'believe', 'believe suited']</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>['178178 viewing angles of the 4k ips panel']</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>['rich connectivity ability to connect multiple devices thanks to 2 x hdmi 20 1 x usbc 32 with 65w pd usb 32 gen 1 with fast charging headphone output']</t>
+        </is>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>['kvm switch would be nice but at the price point it’s understandably missing']</t>
+        </is>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>['tilt and height adjustment', 'frameless design']</t>
+        </is>
+      </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>['kvm switch would be nice but at the price point it’s understandably missing']</t>
+        </is>
+      </c>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="X38" t="inlineStr">
+        <is>
+          <t>['joystick would be better for osd']</t>
+        </is>
+      </c>
+      <c r="Y38" t="inlineStr">
+        <is>
+          <t>['price tag amazing for the price point']</t>
+        </is>
+      </c>
+      <c r="Z38" t="inlineStr">
+        <is>
+          <t>['kvm switch would be nice but at the price point it’s understandably missing']</t>
+        </is>
+      </c>
+      <c r="AA38" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="AB38" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>24G4X</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>AOC</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>GAMING</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>gamestar.de</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Erdem Mansur</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>https://www.gamestar.de/artikel/bester-gaming-monitor-vergleich-2025-wqhd-ultrawide-4k-full-hd,2570125.html</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>['best beginner’s monitor', 'height and tilt adjustable', 'good colour reproduction']</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>['comparatively weak contrast']</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>['youre used', 'glow', 'got lot', 'got high', 'got']</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>['comparatively weak contrast']</t>
+        </is>
+      </c>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="R39" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>['height and tilt adjustable']</t>
+        </is>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="W39" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="X39" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Y39" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Z39" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="AA39" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="AB39" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>AG405UXC</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>AOC</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>GAMING</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>gamestar.de</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Erdem Mansur</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>https://www.gamestar.de/artikel/bester-gaming-monitor-vergleich-2025-wqhd-ultrawide-4k-full-hd,2570125.html</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>['good contrast ratio', 'very good colour gamut coverage up to 100 srgb after calibration', 'kvm switch 90 w pd via usbc', 'configurable per pc via usbc']</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>['flat screen offers less immersion when gaming']</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>['youre used', 'glow', 'got lot', 'got high', 'got']</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>['good contrast ratio', 'very good colour gamut coverage up to 100 srgb after calibration']</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>['kvm switch 90 w pd via usbc', 'configurable per pc via usbc']</t>
+        </is>
+      </c>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="W40" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="X40" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Y40" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Z40" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="AA40" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="AB40" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>27B2U6903</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Philips</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>B2B</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Mediaberry</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Erdem Mansur</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>https://mediaberry.co.uk/philips-27b2u6903-business-monitor-review/</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>['thunderbolt 4 and 25 gbit ethernet connectivity', 'from a design standpoint a breath of fresh air', 'simple front mounted osd buttons more usable than rearmounted thumbstick', 'crisp detailed display', 'great range of additional inputs', 'negates the need for a usb hub', 'compact stand', 'thunderbolt 4 and 25 gbit ethernet connectivity', 'from a design standpoint a breath of fresh air', 'simple front mounted osd buttons more usable than rearmounted thumbstick']</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>['very expensive', 'some features don’t deliver reg powersensor 2 “no matter which combination of settings i tried on the monitor and in windows 11s own settings the behaviour of the monitor didn’t change perhaps my environment isn’t well suited perhaps i got a dud sensor perhaps i’m a ghost and i don’t know it”', 'average speaker quality']</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>['youre used', 'glow', 'got lot', 'got high', 'got']</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="R41" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>['from a design standpoint a breath of fresh air', 'great range of additional inputs', 'negates the need for a usb hub', 'from a design standpoint a breath of fresh air']</t>
+        </is>
+      </c>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>['from a design standpoint a breath of fresh air', 'compact stand', 'from a design standpoint a breath of fresh air']</t>
+        </is>
+      </c>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="W41" t="inlineStr">
+        <is>
+          <t>['simple front mounted osd buttons more usable than rearmounted thumbstick', 'simple front mounted osd buttons more usable than rearmounted thumbstick']</t>
+        </is>
+      </c>
+      <c r="X41" t="inlineStr">
+        <is>
+          <t>['average speaker quality']</t>
+        </is>
+      </c>
+      <c r="Y41" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Z41" t="inlineStr">
+        <is>
+          <t>['very expensive']</t>
+        </is>
+      </c>
+      <c r="AA41" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="AB41" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>CU34P3CV</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>AOC</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>GAMING</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>TechFigure</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Erdem Mansur</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=11Du5QvraV8</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>['34inch ultrawide curved 1500r display', 'threesided frameless bezel design', 'va panel with good contrast and deep blacks', '100 hz refresh rate', '219 aspect ratio for more horizontal space', 'usbc connectivity with displayport alt mode and 65 w power delivery great for laptops', 'builtin 5w speakers per side', 'usb hub with usb 32 gen 1 ports', 'good for productivity multitasking sidebyside applications', 'suitable for casual gaming', 'works well in dualmonitor setups', 'all necessary cables included', '34inch ultrawide curved 1500r display', 'threesided frameless bezel design', 'va panel with good contrast and deep blacks', '100 hz refresh rate', '219 aspect ratio for more horizontal space', 'usbc connectivity with displayport alt mode and 65 w power delivery great for laptops', 'builtin 5w speakers per side', 'usb hub with usb 32 gen 1 ports', 'good for productivity multitasking sidebyside applications', 'suitable for casual gaming', 'works well in dualmonitor setups', 'all necessary cables included']</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>['takes up significant desk space', 'cable management challenges with multiple monitors', 'requires powerful graphics card for dualmonitor gaming rtx 4070 recommended', 'potential for more distractions with increased screen real estate', 'takes up significant desk space', 'cable management challenges with multiple monitors', 'requires powerful graphics card for dualmonitor gaming rtx 4070 recommended', 'potential for more distractions with increased screen real estate']</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>the aoc cu34p3cv itself look at the sleek design my first impressions are really positive this looks like a quality piece of kit going from one to two of these has completely streamlined my workflow the 219 aspect ratio of each monitor gives you so much horizontal space to work with and thanks to the usbc docking my laptop charges while transferring data — less clutter more hype this isnt just about more screen space its about creating an environment that lets you work smarter and faster and trust me when you double your screens you double your efficiency for those who game hard the impact is unreal a 100 hz refresh rate and an immersive 219 aspect ratio on both monitors means every frame is crisp and every detail is in view its a great setup for having your main game on one screen while keeping an eye on your live chat or strategy on the other youre basically having your cake and eating it too — ultimate immersion with no compromises so if youre ready to level up your workspace and gaming experience then adding a second aoc cu34p3cv monitor might just be the upgrade you need</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>0.1022366522366522</v>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>['219', 'aoc cu34p3cv', 'double', 'aspect', 'cu34p3cv']</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>['va panel with good contrast and deep blacks', 'va panel with good contrast and deep blacks']</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>['100 hz refresh rate', '100 hz refresh rate']</t>
+        </is>
+      </c>
+      <c r="R42" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>['usbc connectivity with displayport alt mode and 65 w power delivery great for laptops', 'usb hub with usb 32 gen 1 ports', 'usbc connectivity with displayport alt mode and 65 w power delivery great for laptops', 'usb hub with usb 32 gen 1 ports']</t>
+        </is>
+      </c>
+      <c r="T42" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>['threesided frameless bezel design', 'threesided frameless bezel design']</t>
+        </is>
+      </c>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="W42" t="inlineStr">
+        <is>
+          <t>['builtin 5w speakers per side', 'builtin 5w speakers per side']</t>
+        </is>
+      </c>
+      <c r="X42" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Y42" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Z42" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="AA42" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="AB42" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>AG246FK</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>AOC</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>GAMING</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Hungary</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">tesztplussz.hu </t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Dorka Dobos</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>https://tesztplussz.hu/aoc-agon-pro-ag246fk-gamer-monitor-teszt/</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>['excellent price value ratio', 'well and safely packed', 'quickswitch vesa mount included', '2 x headset holders', 'kensington lock', 'ergonomic adjustability including pivot mode', 'easy setup', 'carrying handle', 'gaming experience is next level by windows 10 500 hz is the max by consoles 120 hz', 'the best choice for fps games it really affects the gaming performance', 'joystick for osd navigation users can save their setting in their profiles', '540 hz refresh rate', 'spectacular image quality', 'excellent colour accuracy', 'design tailored to player needs in all areas', 'plenty of setting options', 'comes with many extras', 'robust structure', 'excellent price value ratio', 'well and safely packed', 'quickswitch vesa mount included', '2 x headset holders', 'kensington lock', 'ergonomic adjustability including pivot mode', 'easy setup', 'carrying handle', 'gaming experience is next level by windows 10 500 hz is the max by consoles 120 hz', 'the best choice for fps games it really affects the gaming performance', 'joystick for osd navigation users can save their setting in their profiles']</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>['location of the ports', 'lack of hungarian language in osd', 'viewing angles are quite poor', 'brightness could be better', 'lack of usbc', 'location of the ports', 'lack of hungarian language in osd']</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>it was our first encounter with a 540 hz gamer monitor but we were very impressed with it from the first few minutes and the more we used it the more it proved what it could do there are some minor flaws but they are manageable and for that reason and the premium solutions inside and out wed recommend it for even competitive fps gaming its a perfect choice if you cant afford a zowie monitor for example but want to get the most for your money as aoc has once again proven that theyre virtually unbeatable on the market when it comes to value for money</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>0.4166666666666667</v>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>['money', 'proved', 'virtually', 'virtually unbeatable', 'proved minor']</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>['brightness could be better']</t>
+        </is>
+      </c>
+      <c r="Q43" t="inlineStr">
+        <is>
+          <t>['the best choice for fps games it really affects the gaming performance', '540 hz refresh rate', 'the best choice for fps games it really affects the gaming performance']</t>
+        </is>
+      </c>
+      <c r="R43" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="T43" t="inlineStr">
+        <is>
+          <t>['location of the ports', 'lack of usbc', 'location of the ports']</t>
+        </is>
+      </c>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>['ergonomic adjustability including pivot mode', 'design tailored to player needs in all areas', 'ergonomic adjustability including pivot mode']</t>
+        </is>
+      </c>
+      <c r="V43" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="W43" t="inlineStr">
+        <is>
+          <t>['joystick for osd navigation users can save their setting in their profiles', 'joystick for osd navigation users can save their setting in their profiles']</t>
+        </is>
+      </c>
+      <c r="X43" t="inlineStr">
+        <is>
+          <t>['lack of hungarian language in osd', 'lack of hungarian language in osd']</t>
+        </is>
+      </c>
+      <c r="Y43" t="inlineStr">
+        <is>
+          <t>['excellent price value ratio', 'excellent price value ratio']</t>
+        </is>
+      </c>
+      <c r="Z43" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="AA43" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="AB43" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>27B2U6903</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Philips</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>B2B</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>connect professional</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Erdem Mansur</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>https://www.connect-professional.de/office-kommunikation/geballte-teamkompetenz.333277.html</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>['good ergonomics', 'environmental sensors for even more power efficiency', 'high colour fidelity', 'tco gen 10 certified', 'many ports incl thunderbolt 4 and usbc with power delivery', 'kvm switch with hotkey', 'good image quality', 'power efficient usage', '5 years warranty', 'good ergonomics', 'environmental sensors for even more power efficiency', 'high colour fidelity', 'tco gen 10 certified']</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>['osd buttons not illuminated', 'complicated switching in pippbp mode']</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>the philips 27b2u6903 is recommended as a powerful business monitor for office use and delivers as promised in terms of features and ergonomics among other things the 4k screen scores points with a thunderbolt 4 interface and a sensor package that ensures energysaving operation the 27inch display scores further points with its generous 5year warranty period it only lacks a webcam to make it an office allrounder</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>0.04375</v>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>['scores points', 'points', 'scores', 'office', 'promised terms']</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="R44" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>['many ports incl thunderbolt 4 and usbc with power delivery', 'kvm switch with hotkey']</t>
+        </is>
+      </c>
+      <c r="T44" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>['good ergonomics', 'good ergonomics']</t>
+        </is>
+      </c>
+      <c r="V44" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="W44" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="X44" t="inlineStr">
+        <is>
+          <t>['osd buttons not illuminated', 'complicated switching in pippbp mode']</t>
+        </is>
+      </c>
+      <c r="Y44" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Z44" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="AA44" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="AB44" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>34M2C6500</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Philips</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>GAMING</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>gamestar.de</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Erdem Mansur</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>https://www.gamestar.de/artikel/philips-evnia-34m2c6500-test,3428453.html</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>['good priceperformance ratio', 'rich colours and deep blacks', 'fast refresh rate', 'also suitable for midrange setups', 'ambiglow function']</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>['not very bright with glossy display', 'no usbc with power delivery', 'operation and menu confusing']</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>from a priceperformance perspective the philips evnia 34m2c6500 is a really good choice if youre simply looking for a nice picture with superb black and colour reproduction dont want to spend a fortune on an ultrawide oled monitor and dont have a highend graphics card this gaming monitor is currently one of the cheapest of its kind this is why we have decided to give it our priceperformance award</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>0.3904761904761905</v>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>['priceperformance', 'dont', 'picture superb', 'youre simply', 'perspective']</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>['fast refresh rate']</t>
+        </is>
+      </c>
+      <c r="R45" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t>['no usbc with power delivery']</t>
+        </is>
+      </c>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="W45" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="X45" t="inlineStr">
+        <is>
+          <t>['operation and menu confusing']</t>
+        </is>
+      </c>
+      <c r="Y45" t="inlineStr">
+        <is>
+          <t>['good priceperformance ratio']</t>
+        </is>
+      </c>
+      <c r="Z45" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="AA45" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="AB45" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>27B2G5500</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Philips</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>B2B</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Estonia</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">AM.ee </t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Dorka Dobos</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>https://www.am.ee/node/9150</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>['lowblue mode and softblue technology', '2 usb ports and audio port on the side of the monitor is more comfortable', 'energy efficiency offers decent power saving with special features', 'adjustable stand can be moved to any position ergonomically', '100 hz is a better refresh rate', 'lowblue mode and softblue technology', '2 usb ports and audio port on the side of the monitor is more comfortable']</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>['no usbc', 'colour coverage is rather mediocre']</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>overall the philips 27b2g5500 is a solid choice for businesses that prioritise energy efficiency and ergonomic design although it may not be ideal for tasks that require high colour accuracy or usbc connectivity</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>['efficiency', 'usbc', 'philips 27b2g5500', 'solid choice', '27b2g5500 solid']</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>['100 hz is a better refresh rate']</t>
+        </is>
+      </c>
+      <c r="R46" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>['2 usb ports and audio port on the side of the monitor is more comfortable', '2 usb ports and audio port on the side of the monitor is more comfortable']</t>
+        </is>
+      </c>
+      <c r="T46" t="inlineStr">
+        <is>
+          <t>['no usbc']</t>
+        </is>
+      </c>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>['adjustable stand can be moved to any position ergonomically']</t>
+        </is>
+      </c>
+      <c r="V46" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="W46" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="X46" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Y46" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Z46" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="AA46" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="AB46" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>27M2C5501</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Philips</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>GAMING</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Hungary</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>playdome.hu</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Dorka Dobos</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>https://www.playdome.hu/cikk/63334/philips-evnia-27m2c5501-monitorteszt-meghajlitva</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>['qhd 180 hz va panel', 'ergonomic adjustability of the stand', 'gsnyc compatible', 'great gaming experience', 'high contrast is ideal for games with more vivid visuals like overwatch 2', 'decent colours', 'white design']</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>['performance of ambiglow the system didnt always recognise colours except when the image was quite homogeneous', 'curve at 27” is not too impressive']</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>the philips evnia 27m2c5501 turned out to be a nice little piece of kit the va panel did what i expected and didnt do anything i was afraid of however looking at the price of around 95100 thousand forints i dont really know where to put this monitor it seems a bit expensive compared to what others are offering for around the same price of course a nice white housing is rare in monitors but is it worth it</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>0.05568181818181819</v>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>['nice', 'va panel', 'price', 'piece kit', 'evnia']</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>['qhd 180 hz va panel', 'high contrast is ideal for games with more vivid visuals like overwatch 2']</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q47" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="R47" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="S47" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="T47" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="U47" t="inlineStr">
+        <is>
+          <t>['ergonomic adjustability of the stand', 'white design']</t>
+        </is>
+      </c>
+      <c r="V47" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="W47" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="X47" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Y47" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Z47" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="AA47" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="AB47" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>49B2U6903CH</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Philips</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>B2B</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>faz.net</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Erdem Mansur</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>https://www.faz.net/kaufkompass/test/der-beste-curved-monitor/</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>['very good image quality', 'high resolution', 'integrated webcam', 'integrated speakers', 'usbc hub with power delivery']</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>['expensive']</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>with the philips 49b2u6903ch philips delivers a sophisticated further development that is even more versatile thanks to higher brightness 120 hz and thunderbolt 4 the elegant design numerous connections and clever office features including a webcam headphone holder and status display make it the ideal companion for productive days in the home office although the device is less suitable for pure gamers anyone who primarily works and is also looking for a movie screen for multitasking will find a convincing solution here</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>0.3224489795918368</v>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>['office', 'versatile thanks', 'works', 'pure gamers', 'pure']</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>['high resolution']</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="R48" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="S48" t="inlineStr">
+        <is>
+          <t>['usbc hub with power delivery']</t>
+        </is>
+      </c>
+      <c r="T48" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="V48" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="W48" t="inlineStr">
+        <is>
+          <t>['integrated speakers']</t>
+        </is>
+      </c>
+      <c r="X48" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Y48" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Z48" t="inlineStr">
+        <is>
+          <t>['expensive']</t>
+        </is>
+      </c>
+      <c r="AA48" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="AB48" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>34B2U6603CH</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Philips</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>B2B</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>faz.net</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Erdem Mansur</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>https://www.faz.net/kaufkompass/test/der-beste-curved-monitor/</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>['very good image quality', 'hook for headset', 'integrated webcam', 'integrated speakers', 'usbc hub with power delivery']</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>['expensive']</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>the philips 34b2u6603ch is a compact alternative to the big test winner and offers an excellent 34inch curved display for the home office with a high resolution of 3440 × 1440 pixels 550 nits of brightness and a curvature of 1500r it is easy on the eyes and impresses with modern features such as a popup webcam and thunderbolt 4 the versatile connections and easy handling make it ideal for productive work however gamers and creative professionals should consider alternatives as it lacks gaming features and dcip3 colour gamut specifications</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>0.3726666666666666</v>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>['easy', 'features', '3440', 'productive work', 'winner offers']</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q49" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="R49" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>['usbc hub with power delivery']</t>
+        </is>
+      </c>
+      <c r="T49" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="U49" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="V49" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="W49" t="inlineStr">
+        <is>
+          <t>['integrated speakers']</t>
+        </is>
+      </c>
+      <c r="X49" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Y49" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Z49" t="inlineStr">
+        <is>
+          <t>['expensive']</t>
+        </is>
+      </c>
+      <c r="AA49" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="AB49" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>AG326UD</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>AOC</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>GAMING</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>total gaming addicts</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Erdem Mansur</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>https://totalgamingaddicts.com/aoc-agon-pro-ag326ud-qd-oled-monitor-review/</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>['glossy screen improves sharpness while diffusing ambient light and preventing reflections', 'looks far brighter thanks to infinite contrast', 'osd is intuitive and easy to navigate with the joystick', 'comprehensive selection of ports including usb hub', 'sturdy and unobtrusive flat base impressive amount of ergonomic adjustability incl pivot mode', 'excellent build quality with sturdy metal stand', 'no annoying brightness limiter', 'outofthebox colour accuracy with an average deltae of 080 after calibration the average deltae improved to 004', 'native 10bit colour depth with srgb 100 coverage – 1585 volume adobergb 932 coverage – 1092 volume dcip3 970 coverage – 1123 volume', 'excellent luminance uniformity only a maximum of 2 variance with 50 brightness and colour uniformity max deltae of 21 with 100 brightness', 'almost perfect factory calibration', 'sumptuous colour', 'outstanding for all uses not just gaming', 'natural and impressive hdr', 'far cheaper than the competition using the same panel', 'glossy screen improves sharpness while diffusing ambient light and preventing reflections', 'looks far brighter thanks to infinite contrast', 'osd is intuitive and easy to navigate with the joystick', 'comprehensive selection of ports including usb hub', 'sturdy and unobtrusive flat base impressive amount of ergonomic adjustability incl pivot mode', 'excellent build quality with sturdy metal stand', 'no annoying brightness limiter', 'outofthebox colour accuracy with an average deltae of 080 after calibration the average deltae improved to 004', 'native 10bit colour depth with srgb 100 coverage – 1585 volume adobergb 932 coverage – 1092 volume dcip3 970 coverage – 1123 volume', 'excellent luminance uniformity only a maximum of 2 variance with 50 brightness and colour uniformity max deltae of 21 with 100 brightness']</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>['no kvm switch no quickswitch puck or a remote', 'dated osd design', 'no usbc', 'uninspiring speakers', 'only dp 14 so limited to dsc at higher refresh rates', 'no kvm switch no quickswitch puck or a remote', 'dated osd design']</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>the aoc agon pro ag326ud is my favourite oled monitor so far it is perfectly set up straight out of the box and the colours and extensive dynamic range inherent to its qdoled panel are simply stunning like most oleds the blistering responsiveness makes it a gamer’s dream and it’s also an amazing display for watching your favourite shows and movies combine it with one of the best modern gpus andor the latest consoles and you’ve got a sumptuous visual experience that’s hard to beat especially at this price point if you’ve managed to snag an rtx 5090 or you want to plan for the future of your setup you may want to consider holding out for aoc’s take on the next gen of monitors with 4k240 hz and dualrefreshresolution panels gradually hitting the market but in the here and now this is the monitor i’d buy to replace my already great 32” uhd monitor</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>0.3004901960784313</v>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>['favourite', 've', 'aoc', 'want', 'plan']</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>['looks far brighter thanks to infinite contrast', 'no annoying brightness limiter', 'outofthebox colour accuracy with an average deltae of 080 after calibration the average deltae improved to 004', 'native 10bit colour depth with srgb 100 coverage – 1585 volume adobergb 932 coverage – 1092 volume dcip3 970 coverage – 1123 volume', 'excellent luminance uniformity only a maximum of 2 variance with 50 brightness and colour uniformity max deltae of 21 with 100 brightness', 'almost perfect factory calibration', 'natural and impressive hdr', 'far cheaper than the competition using the same panel', 'looks far brighter thanks to infinite contrast', 'no annoying brightness limiter', 'outofthebox colour accuracy with an average deltae of 080 after calibration the average deltae improved to 004', 'native 10bit colour depth with srgb 100 coverage – 1585 volume adobergb 932 coverage – 1092 volume dcip3 970 coverage – 1123 volume', 'excellent luminance uniformity only a maximum of 2 variance with 50 brightness and colour uniformity max deltae of 21 with 100 brightness']</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="R50" t="inlineStr">
+        <is>
+          <t>['only dp 14 so limited to dsc at higher refresh rates']</t>
+        </is>
+      </c>
+      <c r="S50" t="inlineStr">
+        <is>
+          <t>['comprehensive selection of ports including usb hub', 'comprehensive selection of ports including usb hub']</t>
+        </is>
+      </c>
+      <c r="T50" t="inlineStr">
+        <is>
+          <t>['no kvm switch no quickswitch puck or a remote', 'no usbc', 'only dp 14 so limited to dsc at higher refresh rates', 'no kvm switch no quickswitch puck or a remote']</t>
+        </is>
+      </c>
+      <c r="U50" t="inlineStr">
+        <is>
+          <t>['sturdy and unobtrusive flat base impressive amount of ergonomic adjustability incl pivot mode', 'excellent build quality with sturdy metal stand', 'native 10bit colour depth with srgb 100 coverage – 1585 volume adobergb 932 coverage – 1092 volume dcip3 970 coverage – 1123 volume', 'outstanding for all uses not just gaming', 'sturdy and unobtrusive flat base impressive amount of ergonomic adjustability incl pivot mode', 'excellent build quality with sturdy metal stand', 'native 10bit colour depth with srgb 100 coverage – 1585 volume adobergb 932 coverage – 1092 volume dcip3 970 coverage – 1123 volume']</t>
+        </is>
+      </c>
+      <c r="V50" t="inlineStr">
+        <is>
+          <t>['dated osd design', 'dated osd design']</t>
+        </is>
+      </c>
+      <c r="W50" t="inlineStr">
+        <is>
+          <t>['osd is intuitive and easy to navigate with the joystick', 'native 10bit colour depth with srgb 100 coverage – 1585 volume adobergb 932 coverage – 1092 volume dcip3 970 coverage – 1123 volume', 'natural and impressive hdr', 'osd is intuitive and easy to navigate with the joystick', 'native 10bit colour depth with srgb 100 coverage – 1585 volume adobergb 932 coverage – 1092 volume dcip3 970 coverage – 1123 volume']</t>
+        </is>
+      </c>
+      <c r="X50" t="inlineStr">
+        <is>
+          <t>['dated osd design', 'uninspiring speakers', 'dated osd design']</t>
+        </is>
+      </c>
+      <c r="Y50" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Z50" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="AA50" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="AB50" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>CQ27G4X</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>AOC</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>GAMING</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>I’m CheCo Tech</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Erdem Mansur</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=e5XCL0d5CyY</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>['180 hz refresh rate with minimal motion blur', '1 ms response time', 'qhd resolution 2560x1440p', '931 dcip3 colour coverage', '40001 contrast ratio for deep blacks', 'threesided frameless design', '1500r curve for better immersion', 'fully adjustable stand', 'vesa mount compatible 100x100', 'adaptivesync support', 'excellent value at £150', '180 hz refresh rate with minimal motion blur', '1 ms response time', 'qhd resolution 2560x1440p', '931 dcip3 colour coverage', '40001 contrast ratio for deep blacks', 'threesided frameless design', '1500r curve for better immersion', 'fully adjustable stand', 'vesa mount compatible 100x100', 'adaptivesync support', 'excellent value at £150']</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>['limited brightness 300 nits', 'va panel struggles with dark colour accuracy', 'no official nvidia gsync certification', 'no builtin speakers', 'limited hdr capabilities', 'not suitable for professional colour work', 'limited brightness 300 nits', 'va panel struggles with dark colour accuracy', 'no official nvidia gsync certification', 'no builtin speakers', 'limited hdr capabilities', 'not suitable for professional colour work']</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>is the aoc cq27g4x the ultimate budget gaming monitor for £150 absolutely that 180 hz refresh rate 1 ms response time adaptivesync make it an excellent choice for gamers who prioritise performance … while the brightness and hdr may not be as highend as more expensive monitors remember were talking about a £150 monitor so these are minor drawbacks … if youre on a budget and still want a solid immersive gaming experience from a wellknown brand this is fantastic</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>0.19375</v>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>['150', 'budget', '150 monitor', 'youre budget', '150 absolutely']</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>['qhd resolution 2560x1440p', '40001 contrast ratio for deep blacks', 'qhd resolution 2560x1440p', '40001 contrast ratio for deep blacks']</t>
+        </is>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>['limited brightness 300 nits', 'va panel struggles with dark colour accuracy', 'limited hdr capabilities', 'limited brightness 300 nits', 'va panel struggles with dark colour accuracy', 'limited hdr capabilities']</t>
+        </is>
+      </c>
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>['180 hz refresh rate with minimal motion blur', '1 ms response time', '180 hz refresh rate with minimal motion blur', '1 ms response time']</t>
+        </is>
+      </c>
+      <c r="R51" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="S51" t="inlineStr">
+        <is>
+          <t>['adaptivesync support', 'adaptivesync support']</t>
+        </is>
+      </c>
+      <c r="T51" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="U51" t="inlineStr">
+        <is>
+          <t>['threesided frameless design', 'fully adjustable stand', 'threesided frameless design', 'fully adjustable stand']</t>
+        </is>
+      </c>
+      <c r="V51" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="W51" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="X51" t="inlineStr">
+        <is>
+          <t>['no builtin speakers', 'limited hdr capabilities', 'no builtin speakers', 'limited hdr capabilities']</t>
+        </is>
+      </c>
+      <c r="Y51" t="inlineStr">
+        <is>
+          <t>['excellent value at £150', 'excellent value at £150']</t>
+        </is>
+      </c>
+      <c r="Z51" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="AA51" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="AB51" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>32B1U3900</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Philips</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>B2B</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>24-7-TopTipp</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Meike Koch</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=YMD6mGT9-1g</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>['massive metal stand', 'good connectivity incl usb hub and lan', 'rotatable heightadjustable and with pivot', 'easytouse and comprehensive osd', 'good colour quality', 'flickerfree', 'massive metal stand', 'good connectivity incl usb hub and lan', 'rotatable heightadjustable and with pivot', 'easytouse and comprehensive osd', 'good colour quality', 'flickerfree']</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>0</v>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>['youre used', 'glow', 'got lot', 'got high', 'got']</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q52" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="R52" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="S52" t="inlineStr">
+        <is>
+          <t>['good connectivity incl usb hub and lan', 'good connectivity incl usb hub and lan']</t>
+        </is>
+      </c>
+      <c r="T52" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="U52" t="inlineStr">
+        <is>
+          <t>['massive metal stand', 'rotatable heightadjustable and with pivot', 'massive metal stand', 'rotatable heightadjustable and with pivot']</t>
+        </is>
+      </c>
+      <c r="V52" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="W52" t="inlineStr">
+        <is>
+          <t>['easytouse and comprehensive osd', 'easytouse and comprehensive osd']</t>
+        </is>
+      </c>
+      <c r="X52" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Y52" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Z52" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="AA52" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="AB52" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>AG276QZD2</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>AOC</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>GAMING</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>techless</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Meike Koch</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=yAwhqmtVtjo</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>['very high colour saturation', 'perfect black levels', 'hdr looks great and maintains good colour accuracy evnia has best hdr performance', 'amazing response times', 'evnia ambiglow great and very useful as bias light', 'agon stand needs much less space than others', '3yearwarranty including burnin in europe not available in the usa though', 'very high colour saturation', 'perfect black levels', 'hdr looks great and maintains good colour accuracy evnia has best hdr performance', 'amazing response times', 'evnia ambiglow great and very useful as bias light', 'agon stand needs much less space than others', '3yearwarranty including burnin in europe not available in the usa though']</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>['agon only 240 hz compared to the 360 hz of the other models', 'agon eotf tracking is off', 'agon only 240 hz compared to the 360 hz of the other models', 'agon eotf tracking is off']</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>performancewise though these three monitors despite being some of the cheapest in the market can easily compete with the more expensive qdolevel monitors im especially impressed with this philips monitor its the most wellrounded of these three and even ignoring the price tag i think its one of the best monitors with this panel in the market i mean that ambiglow bias light alone is pretty useful and a unique feature that all the other monitors just dont have and given how similar the performance of all these monitors that use samsungs qdoled panel really is a feature like this is more than enough to make it stand out</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>0.2825520833333333</v>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>['monitors', 'feature', 'market', 'panel', 'wellrounded ignoring']</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>['hdr looks great and maintains good colour accuracy evnia has best hdr performance', 'hdr looks great and maintains good colour accuracy evnia has best hdr performance']</t>
+        </is>
+      </c>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q53" t="inlineStr">
+        <is>
+          <t>['amazing response times', 'amazing response times']</t>
+        </is>
+      </c>
+      <c r="R53" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="S53" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="T53" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="U53" t="inlineStr">
+        <is>
+          <t>['agon stand needs much less space than others', 'agon stand needs much less space than others']</t>
+        </is>
+      </c>
+      <c r="V53" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="W53" t="inlineStr">
+        <is>
+          <t>['hdr looks great and maintains good colour accuracy evnia has best hdr performance', 'hdr looks great and maintains good colour accuracy evnia has best hdr performance']</t>
+        </is>
+      </c>
+      <c r="X53" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Y53" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Z53" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="AA53" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="AB53" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>27M2N8500</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Philips</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>GAMING</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>techless</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Meike Koch</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=yAwhqmtVtjo</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>['very high colour saturation', 'perfect black levels', 'hdr looks great and maintains good colour accuracy evnia has best hdr performance', 'amazing response times', 'evnia ambiglow great and very useful as bias light', 'agon stand needs much less space than others', '3yearwarranty including burnin in europe not available in the usa though', 'very high colour saturation', 'perfect black levels', 'hdr looks great and maintains good colour accuracy evnia has best hdr performance', 'amazing response times', 'evnia ambiglow great and very useful as bias light', 'agon stand needs much less space than others', '3yearwarranty including burnin in europe not available in the usa though']</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>['agon only 240 hz compared to the 360 hz of the other models', 'agon eotf tracking is off', 'agon only 240 hz compared to the 360 hz of the other models', 'agon eotf tracking is off']</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>performancewise though these three monitors despite being some of the cheapest in the market can easily compete with the more expensive qdolevel monitors im especially impressed with this philips monitor its the most wellrounded of these three and even ignoring the price tag i think its one of the best monitors with this panel in the market i mean that ambiglow bias light alone is pretty useful and a unique feature that all the other monitors just dont have and given how similar the performance of all these monitors that use samsungs qdoled panel really is a feature like this is more than enough to make it stand out</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>0.2825520833333333</v>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>['monitors', 'feature', 'market', 'panel', 'wellrounded ignoring']</t>
+        </is>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>['hdr looks great and maintains good colour accuracy evnia has best hdr performance', 'hdr looks great and maintains good colour accuracy evnia has best hdr performance']</t>
+        </is>
+      </c>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q54" t="inlineStr">
+        <is>
+          <t>['amazing response times', 'amazing response times']</t>
+        </is>
+      </c>
+      <c r="R54" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="S54" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="T54" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="U54" t="inlineStr">
+        <is>
+          <t>['agon stand needs much less space than others', 'agon stand needs much less space than others']</t>
+        </is>
+      </c>
+      <c r="V54" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="W54" t="inlineStr">
+        <is>
+          <t>['hdr looks great and maintains good colour accuracy evnia has best hdr performance', 'hdr looks great and maintains good colour accuracy evnia has best hdr performance']</t>
+        </is>
+      </c>
+      <c r="X54" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Y54" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Z54" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="AA54" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="AB54" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
